--- a/svbWebPaymentUsers/MarkFinalQA.xlsx
+++ b/svbWebPaymentUsers/MarkFinalQA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="6960" windowWidth="26320" windowHeight="7840" tabRatio="917" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="200" yWindow="5540" windowWidth="27800" windowHeight="10480" tabRatio="114" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mark QA" sheetId="1" r:id="rId1"/>
@@ -20,26 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>OGKirkWy</t>
-  </si>
-  <si>
     <t>onlinebankinguat@uat.svbank.com</t>
   </si>
   <si>
     <t>Enabled</t>
   </si>
   <si>
-    <t>Barry-7917034728, Tim-4152008587, Susan-6508679351, Liam-7710854675</t>
-  </si>
-  <si>
-    <t>Susan</t>
-  </si>
-  <si>
     <t>Client Id</t>
   </si>
   <si>
@@ -61,29 +52,140 @@
     <t>Phone Numbers</t>
   </si>
   <si>
-    <t>danielfox</t>
-  </si>
-  <si>
     <t>Nishikant-4697400211, David D-6509061473, Marie Cell-5082410146, Drew Cell-7964969064, Tom Mobile-4155184797, Tom Mobile-4156948686, Vi-6026420060</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Can Login : Cant mk pay: cant summarize</t>
-  </si>
-  <si>
     <t>Client Name</t>
   </si>
   <si>
     <t>Branch</t>
+  </si>
+  <si>
+    <t>OnLine Cli Id</t>
+  </si>
+  <si>
+    <t>Susan's</t>
+  </si>
+  <si>
+    <t>Account Numbers</t>
+  </si>
+  <si>
+    <t>Account Id</t>
+  </si>
+  <si>
+    <t>Status Meaning</t>
+  </si>
+  <si>
+    <t>Flex UAT Desc</t>
+  </si>
+  <si>
+    <t>Modify Status in FC UAT</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Funded &lt;date&gt;</t>
+  </si>
+  <si>
+    <t>Curency</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Login Name</t>
+  </si>
+  <si>
+    <t>Locked ?</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>Entitlements</t>
+  </si>
+  <si>
+    <t>Max Limit</t>
+  </si>
+  <si>
+    <t>Client ID</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>ACT TELECONFERENCING SERVICES INC</t>
+  </si>
+  <si>
+    <t>actt5540</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>initial data out of dump qa client.xlsx</t>
+  </si>
+  <si>
+    <t>Login names Enabled</t>
+  </si>
+  <si>
+    <t>kprimak, jwescoat</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>CUSTOMER 100018841</t>
+  </si>
+  <si>
+    <t>impr8996</t>
+  </si>
+  <si>
+    <t>apalushi, JKHALL3, JeffKal, KevinJohnson, OmarH, Wgopsill,</t>
+  </si>
+  <si>
+    <t>CUSTOMER 200012767</t>
+  </si>
+  <si>
+    <t>noti4918</t>
+  </si>
+  <si>
+    <t>ianmilbourn, claretruscott, johnmilbourn, emmamilbourn, lorrainestewart, Lmcgowan, NFazal, eszymczak, clarkin1, ralyon</t>
+  </si>
+  <si>
+    <t>CUSTOMER 200036896</t>
+  </si>
+  <si>
+    <t>cube1975</t>
+  </si>
+  <si>
+    <t>hristinewhitehorne, danielfox, nicholasdegnen, MARKHOOTON, andrewbeacom, kellyharvey, aimeegontier, jamiebisson, axeldaasvand, klasufs, amandaekman, bjornvedahl, joachimpaes, grahamlepage, charlottetee, clegalloudec, almadavey, paulstaples, nickmedlen, natashathorne, rhiannonoliver, sianbrodrick, senthilUAT1</t>
+  </si>
+  <si>
+    <t>CUSTOMER 200016750</t>
+  </si>
+  <si>
+    <t>pers2215</t>
+  </si>
+  <si>
+    <t>mrutkowski, cgeorgopoulos, lfanniff, brittneyrose, NLutchman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,13 +209,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -125,12 +246,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -138,10 +311,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,109 +721,293 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:AN6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="9" width="4" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="1"/>
+    <col min="17" max="22" width="13" customWidth="1"/>
+    <col min="23" max="23" width="14.5" customWidth="1"/>
+    <col min="25" max="32" width="13" customWidth="1"/>
+    <col min="37" max="40" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:40">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="AG1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AI1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AJ1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
-        <v>12</v>
-      </c>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
+    <row r="2" spans="1:40">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="1">
-        <v>5047546</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1">
-        <v>1145901</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="F2" s="4">
+        <v>5167510</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5167510</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="W2" s="1">
+        <v>5167510</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1472708</v>
+      </c>
+      <c r="AG2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AH2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" t="s">
-        <v>4</v>
+      <c r="AJ2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:40">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="1">
-        <v>5167510</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1">
-        <v>1472708</v>
+      <c r="F3" s="4">
+        <v>5005797</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="4">
+        <v>5005797</v>
+      </c>
+      <c r="L3" s="1">
+        <v>20117337</v>
+      </c>
+      <c r="M3" s="2">
+        <v>30022060</v>
       </c>
       <c r="N3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="T3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="4">
+        <v>5005797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
+      <c r="F4" s="6">
+        <v>5011486</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5011486</v>
+      </c>
+      <c r="L4" s="1">
+        <v>20109180</v>
+      </c>
+      <c r="M4" s="2">
+        <v>13008542</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
+      <c r="F5" s="4">
+        <v>5100876</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="4">
+        <v>5100876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
+      <c r="F6" s="4">
+        <v>5119156</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/svbWebPaymentUsers/MarkFinalQA.xlsx
+++ b/svbWebPaymentUsers/MarkFinalQA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="5540" windowWidth="27800" windowHeight="10480" tabRatio="114" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="2560" yWindow="3280" windowWidth="21320" windowHeight="12540" tabRatio="114" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mark QA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="79">
   <si>
     <t>a</t>
   </si>
@@ -169,9 +169,6 @@
     <t>cube1975</t>
   </si>
   <si>
-    <t>hristinewhitehorne, danielfox, nicholasdegnen, MARKHOOTON, andrewbeacom, kellyharvey, aimeegontier, jamiebisson, axeldaasvand, klasufs, amandaekman, bjornvedahl, joachimpaes, grahamlepage, charlottetee, clegalloudec, almadavey, paulstaples, nickmedlen, natashathorne, rhiannonoliver, sianbrodrick, senthilUAT1</t>
-  </si>
-  <si>
     <t>CUSTOMER 200016750</t>
   </si>
   <si>
@@ -179,6 +176,87 @@
   </si>
   <si>
     <t>mrutkowski, cgeorgopoulos, lfanniff, brittneyrose, NLutchman</t>
+  </si>
+  <si>
+    <t>lorrainestewart</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>V_FPS, M_FPS</t>
+  </si>
+  <si>
+    <t>ralyon</t>
+  </si>
+  <si>
+    <t>CUSTOMER 200014343</t>
+  </si>
+  <si>
+    <t>gree5950</t>
+  </si>
+  <si>
+    <t>paulsulyok</t>
+  </si>
+  <si>
+    <t>Callumjay</t>
+  </si>
+  <si>
+    <t>Catherineanderson</t>
+  </si>
+  <si>
+    <t>MatFreeman</t>
+  </si>
+  <si>
+    <t>M_FPS</t>
+  </si>
+  <si>
+    <t>MARKHOOTON</t>
+  </si>
+  <si>
+    <t>CREATE_PAYMENT_FPS,VIEW_PAYMENT_FPS</t>
+  </si>
+  <si>
+    <t>hristinewhitehorne, danielfox, nicholasdegnen, andrewbeacom, kellyharvey, aimeegontier, jamiebisson, axeldaasvand, klasufs, amandaekman, bjornvedahl, joachimpaes, grahamlepage, charlottetee, clegalloudec, almadavey, paulstaples, nickmedlen, natashathorne, rhiannonoliver, sianbrodrick, senthilUAT1</t>
+  </si>
+  <si>
+    <t>Lmcgowan</t>
+  </si>
+  <si>
+    <t>VIEW_PAYMENT_FPS,CREATE_PAYMENT_FPS</t>
+  </si>
+  <si>
+    <t>johnmilbourn</t>
+  </si>
+  <si>
+    <t>ianmilbourn</t>
+  </si>
+  <si>
+    <t>cloneuser001</t>
+  </si>
+  <si>
+    <t>CUSTOMER 100041279</t>
+  </si>
+  <si>
+    <t>ckve3842</t>
+  </si>
+  <si>
+    <t>kham</t>
+  </si>
+  <si>
+    <t>chris555</t>
+  </si>
+  <si>
+    <t>eklee</t>
+  </si>
+  <si>
+    <t>julie55</t>
+  </si>
+  <si>
+    <t>KMILLAR</t>
+  </si>
+  <si>
+    <t>adduser001</t>
   </si>
 </sst>
 </file>
@@ -246,7 +324,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -302,13 +380,88 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -319,8 +472,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="127">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -348,6 +505,42 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -375,6 +568,42 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -721,10 +950,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN6"/>
+  <dimension ref="A1:AO118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="C24" sqref="A24:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -732,17 +961,19 @@
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="5" width="4" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="33.6640625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="14.83203125" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" style="1"/>
-    <col min="17" max="22" width="13" customWidth="1"/>
-    <col min="23" max="23" width="14.5" customWidth="1"/>
-    <col min="25" max="32" width="13" customWidth="1"/>
-    <col min="37" max="40" width="13" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="18" max="23" width="13" customWidth="1"/>
+    <col min="24" max="24" width="14.5" customWidth="1"/>
+    <col min="26" max="33" width="13" customWidth="1"/>
+    <col min="38" max="41" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -774,240 +1005,1490 @@
         <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>6</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>8</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>9</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
-    </row>
-    <row r="2" spans="1:40">
+      <c r="AO1" s="1"/>
+    </row>
+    <row r="2" spans="1:41">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>5167510</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>47</v>
       </c>
       <c r="H2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="1">
-        <v>5167510</v>
+        <v>65</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="W2" s="1">
+      <c r="Q2" s="1"/>
+      <c r="X2" s="1">
         <v>5167510</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>1472708</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>1</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AI2" s="2">
         <v>1</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>5005797</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="4">
-        <v>5005797</v>
-      </c>
-      <c r="L3" s="1">
-        <v>20117337</v>
+    <row r="3" spans="1:41">
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="2">
+        <v>20127596</v>
       </c>
       <c r="M3" s="2">
-        <v>30022060</v>
+        <v>53597706</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" s="4">
-        <v>5005797</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
-      <c r="F4" s="6">
-        <v>5011486</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="1">
-        <v>5011486</v>
-      </c>
-      <c r="L4" s="1">
-        <v>20109180</v>
-      </c>
-      <c r="M4" s="2">
-        <v>13008542</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
-      <c r="F5" s="4">
-        <v>5100876</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="4">
-        <v>5100876</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
-      <c r="F6" s="4">
-        <v>5119156</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="F6" s="3">
+        <v>5030870</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6">
+        <v>5030870</v>
+      </c>
+      <c r="L6" s="2">
+        <v>20100167</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2102897</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7">
+        <v>5030870</v>
+      </c>
+      <c r="L7" s="2">
+        <v>20100175</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2102896</v>
+      </c>
+      <c r="N7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8">
+        <v>5030870</v>
+      </c>
+      <c r="L8" s="2">
+        <v>20133790</v>
+      </c>
+      <c r="M8" s="2">
+        <v>81325842</v>
+      </c>
+      <c r="N8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="J9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="9">
+        <v>20100167</v>
+      </c>
+      <c r="L9" s="9">
+        <v>2102897</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="J10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="9">
+        <v>20100175</v>
+      </c>
+      <c r="L10" s="9">
+        <v>2102896</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="J11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="9">
+        <v>20133790</v>
+      </c>
+      <c r="L11" s="9">
+        <v>81325842</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="2">
+        <v>20100167</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2102897</v>
+      </c>
+      <c r="M12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="2">
+        <v>20100175</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2102896</v>
+      </c>
+      <c r="M13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="2">
+        <v>20133790</v>
+      </c>
+      <c r="L14" s="2">
+        <v>81325842</v>
+      </c>
+      <c r="M14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="J15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="2">
+        <v>20100167</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2102897</v>
+      </c>
+      <c r="M15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="J16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="2">
+        <v>20100175</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2102896</v>
+      </c>
+      <c r="M16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="10:13">
+      <c r="J17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="2">
+        <v>20133790</v>
+      </c>
+      <c r="L17" s="2">
+        <v>81325842</v>
+      </c>
+      <c r="M17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="10:13">
+      <c r="J18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="2">
+        <v>20100167</v>
+      </c>
+      <c r="L18" s="2">
+        <v>2102897</v>
+      </c>
+      <c r="M18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="10:13">
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="2">
+        <v>20100175</v>
+      </c>
+      <c r="L19" s="2">
+        <v>2102896</v>
+      </c>
+      <c r="M19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13">
+      <c r="J20" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="2">
+        <v>20133790</v>
+      </c>
+      <c r="L20" s="2">
+        <v>81325842</v>
+      </c>
+      <c r="M20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="10:13">
+      <c r="J21" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" s="2">
+        <v>20100167</v>
+      </c>
+      <c r="L21" s="2">
+        <v>2102897</v>
+      </c>
+      <c r="M21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="10:13">
+      <c r="J22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" s="2">
+        <v>20100175</v>
+      </c>
+      <c r="L22" s="2">
+        <v>2102896</v>
+      </c>
+      <c r="M22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="10:13">
+      <c r="J23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="2">
+        <v>20133790</v>
+      </c>
+      <c r="L23" s="2">
+        <v>81325842</v>
+      </c>
+      <c r="M23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="10:13">
+      <c r="J24" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="2">
+        <v>20100167</v>
+      </c>
+      <c r="L24" s="2">
+        <v>2102897</v>
+      </c>
+      <c r="M24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="10:13">
+      <c r="J25" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="2">
+        <v>20100175</v>
+      </c>
+      <c r="L25" s="2">
+        <v>2102896</v>
+      </c>
+      <c r="M25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="10:13">
+      <c r="J26" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="2">
+        <v>20133790</v>
+      </c>
+      <c r="L26" s="2">
+        <v>81325842</v>
+      </c>
+      <c r="M26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="10:13">
+      <c r="K27"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="10:13">
+      <c r="K28"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="10:13">
+      <c r="K29"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="10:13">
+      <c r="K30"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="10:13">
+      <c r="K31"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="10:13">
+      <c r="K32"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="K33"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="K34"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="K35"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="K36"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="K37"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="K38"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="K39"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="K40"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="K41"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="K42"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="K43"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="5">
+        <v>5005797</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="1">
+        <v>20117337</v>
+      </c>
+      <c r="M46" s="2">
+        <v>30022060</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s">
+        <v>38</v>
+      </c>
+      <c r="U46" t="s">
+        <v>39</v>
+      </c>
+      <c r="V46" t="s">
+        <v>40</v>
+      </c>
+      <c r="X46" s="5">
+        <v>5005797</v>
+      </c>
+    </row>
+    <row r="53" spans="6:22">
+      <c r="F53" s="5">
+        <v>5119156</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H53" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J53" t="s">
         <v>51</v>
       </c>
-      <c r="J6" t="s">
+    </row>
+    <row r="55" spans="6:22">
+      <c r="V55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="6:22">
+      <c r="F57" s="3">
+        <v>5107936</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K57" s="3">
+        <v>5107936</v>
+      </c>
+      <c r="L57" s="2">
+        <v>20104448</v>
+      </c>
+      <c r="M57" s="2">
+        <v>6665576</v>
+      </c>
+      <c r="N57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="6:22">
+      <c r="J58" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K58" s="3">
+        <v>5107936</v>
+      </c>
+      <c r="L58" s="2">
+        <v>20104472</v>
+      </c>
+      <c r="M58" s="2">
+        <v>6665767</v>
+      </c>
+      <c r="N58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="6:22">
+      <c r="J59" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K59" s="3">
+        <v>5107936</v>
+      </c>
+    </row>
+    <row r="60" spans="6:22">
+      <c r="J60" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K60" s="3">
+        <v>5107936</v>
+      </c>
+    </row>
+    <row r="61" spans="6:22">
+      <c r="J61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K61" s="3">
+        <v>5107936</v>
+      </c>
+    </row>
+    <row r="66" spans="6:21">
+      <c r="F66" s="7">
+        <v>5011486</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H66" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J66" t="s">
+        <v>43</v>
+      </c>
+      <c r="L66" s="1">
+        <v>20109180</v>
+      </c>
+      <c r="M66" s="2">
+        <v>13008542</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s">
+        <v>38</v>
+      </c>
+      <c r="U66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="6:21">
+      <c r="F72" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J72" t="s">
+        <v>46</v>
+      </c>
+      <c r="K72" s="5"/>
+    </row>
+    <row r="74" spans="6:21">
+      <c r="J74" t="s">
         <v>52</v>
+      </c>
+      <c r="K74">
+        <v>5100876</v>
+      </c>
+      <c r="L74">
+        <v>20102615</v>
+      </c>
+      <c r="M74">
+        <v>4888684</v>
+      </c>
+      <c r="N74" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="6:21">
+      <c r="J75" t="s">
+        <v>52</v>
+      </c>
+      <c r="K75">
+        <v>5100876</v>
+      </c>
+      <c r="L75">
+        <v>20102623</v>
+      </c>
+      <c r="M75">
+        <v>4888685</v>
+      </c>
+      <c r="N75" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="6:21">
+      <c r="J76" t="s">
+        <v>52</v>
+      </c>
+      <c r="K76">
+        <v>5100876</v>
+      </c>
+      <c r="L76">
+        <v>20102631</v>
+      </c>
+      <c r="M76">
+        <v>4888686</v>
+      </c>
+      <c r="N76" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="6:21">
+      <c r="J77" t="s">
+        <v>52</v>
+      </c>
+      <c r="K77">
+        <v>5100876</v>
+      </c>
+      <c r="L77">
+        <v>20102666</v>
+      </c>
+      <c r="M77">
+        <v>4888688</v>
+      </c>
+      <c r="N77" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="6:21">
+      <c r="J78" t="s">
+        <v>52</v>
+      </c>
+      <c r="K78">
+        <v>5100876</v>
+      </c>
+      <c r="L78">
+        <v>20102674</v>
+      </c>
+      <c r="M78">
+        <v>4888689</v>
+      </c>
+      <c r="N78" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="6:21">
+      <c r="J79" t="s">
+        <v>52</v>
+      </c>
+      <c r="K79">
+        <v>5100876</v>
+      </c>
+      <c r="L79">
+        <v>20102682</v>
+      </c>
+      <c r="M79">
+        <v>4888690</v>
+      </c>
+      <c r="N79" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="6:21">
+      <c r="J80" t="s">
+        <v>52</v>
+      </c>
+      <c r="K80">
+        <v>5100876</v>
+      </c>
+      <c r="L80">
+        <v>20103239</v>
+      </c>
+      <c r="M80">
+        <v>5182163</v>
+      </c>
+      <c r="N80" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="6:14">
+      <c r="F81" s="5"/>
+      <c r="G81" s="4"/>
+      <c r="I81" s="5"/>
+      <c r="J81" t="s">
+        <v>52</v>
+      </c>
+      <c r="K81">
+        <v>5100876</v>
+      </c>
+      <c r="L81">
+        <v>20105134</v>
+      </c>
+      <c r="M81">
+        <v>7163074</v>
+      </c>
+      <c r="N81" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="6:14">
+      <c r="J82" t="s">
+        <v>52</v>
+      </c>
+      <c r="K82">
+        <v>5100876</v>
+      </c>
+      <c r="L82">
+        <v>20128738</v>
+      </c>
+      <c r="M82">
+        <v>56275427</v>
+      </c>
+      <c r="N82" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="6:14">
+      <c r="J83" t="s">
+        <v>55</v>
+      </c>
+      <c r="K83">
+        <v>5100876</v>
+      </c>
+      <c r="L83" s="2">
+        <v>20102615</v>
+      </c>
+      <c r="M83" s="2">
+        <v>4888684</v>
+      </c>
+      <c r="N83" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="6:14">
+      <c r="J84" t="s">
+        <v>55</v>
+      </c>
+      <c r="K84">
+        <v>5100876</v>
+      </c>
+      <c r="L84" s="2">
+        <v>20102623</v>
+      </c>
+      <c r="M84" s="2">
+        <v>4888685</v>
+      </c>
+      <c r="N84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="6:14">
+      <c r="J85" t="s">
+        <v>55</v>
+      </c>
+      <c r="K85">
+        <v>5100876</v>
+      </c>
+      <c r="L85" s="2">
+        <v>20102631</v>
+      </c>
+      <c r="M85" s="2">
+        <v>4888686</v>
+      </c>
+      <c r="N85" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="6:14">
+      <c r="J86" t="s">
+        <v>55</v>
+      </c>
+      <c r="K86">
+        <v>5100876</v>
+      </c>
+      <c r="L86" s="2">
+        <v>20102666</v>
+      </c>
+      <c r="M86" s="2">
+        <v>4888688</v>
+      </c>
+      <c r="N86" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="6:14">
+      <c r="J87" t="s">
+        <v>55</v>
+      </c>
+      <c r="K87">
+        <v>5100876</v>
+      </c>
+      <c r="L87" s="2">
+        <v>20102674</v>
+      </c>
+      <c r="M87" s="2">
+        <v>4888689</v>
+      </c>
+      <c r="N87" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="88" spans="6:14">
+      <c r="J88" t="s">
+        <v>55</v>
+      </c>
+      <c r="K88">
+        <v>5100876</v>
+      </c>
+      <c r="L88" s="2">
+        <v>20102682</v>
+      </c>
+      <c r="M88" s="2">
+        <v>4888690</v>
+      </c>
+      <c r="N88" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="6:14">
+      <c r="J89" t="s">
+        <v>55</v>
+      </c>
+      <c r="K89">
+        <v>5100876</v>
+      </c>
+      <c r="L89" s="2">
+        <v>20103239</v>
+      </c>
+      <c r="M89" s="2">
+        <v>5182163</v>
+      </c>
+      <c r="N89" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="6:14">
+      <c r="J90" t="s">
+        <v>55</v>
+      </c>
+      <c r="K90">
+        <v>5100876</v>
+      </c>
+      <c r="L90" s="2">
+        <v>20105134</v>
+      </c>
+      <c r="M90" s="2">
+        <v>7163074</v>
+      </c>
+      <c r="N90" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="6:14">
+      <c r="J91" t="s">
+        <v>55</v>
+      </c>
+      <c r="K91">
+        <v>5100876</v>
+      </c>
+      <c r="L91" s="2">
+        <v>20128738</v>
+      </c>
+      <c r="M91" s="2">
+        <v>56275427</v>
+      </c>
+      <c r="N91" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" spans="6:14">
+      <c r="J92" t="s">
+        <v>66</v>
+      </c>
+      <c r="K92">
+        <v>5100876</v>
+      </c>
+      <c r="L92" s="2">
+        <v>20102615</v>
+      </c>
+      <c r="M92" s="2">
+        <v>4888684</v>
+      </c>
+      <c r="N92" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="6:14">
+      <c r="J93" t="s">
+        <v>66</v>
+      </c>
+      <c r="K93">
+        <v>5100876</v>
+      </c>
+      <c r="L93" s="2">
+        <v>20102623</v>
+      </c>
+      <c r="M93" s="2">
+        <v>4888685</v>
+      </c>
+      <c r="N93" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94" spans="6:14">
+      <c r="J94" t="s">
+        <v>66</v>
+      </c>
+      <c r="K94">
+        <v>5100876</v>
+      </c>
+      <c r="L94" s="2">
+        <v>20102631</v>
+      </c>
+      <c r="M94" s="2">
+        <v>4888686</v>
+      </c>
+      <c r="N94" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="6:14">
+      <c r="J95" t="s">
+        <v>66</v>
+      </c>
+      <c r="K95">
+        <v>5100876</v>
+      </c>
+      <c r="L95" s="2">
+        <v>20102666</v>
+      </c>
+      <c r="M95" s="2">
+        <v>4888688</v>
+      </c>
+      <c r="N95" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="6:14">
+      <c r="J96" t="s">
+        <v>66</v>
+      </c>
+      <c r="K96">
+        <v>5100876</v>
+      </c>
+      <c r="L96" s="2">
+        <v>20102674</v>
+      </c>
+      <c r="M96" s="2">
+        <v>4888689</v>
+      </c>
+      <c r="N96" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="10:14">
+      <c r="J97" t="s">
+        <v>66</v>
+      </c>
+      <c r="K97">
+        <v>5100876</v>
+      </c>
+      <c r="L97" s="2">
+        <v>20102682</v>
+      </c>
+      <c r="M97" s="2">
+        <v>4888690</v>
+      </c>
+      <c r="N97" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="10:14">
+      <c r="J98" t="s">
+        <v>66</v>
+      </c>
+      <c r="K98">
+        <v>5100876</v>
+      </c>
+      <c r="L98" s="2">
+        <v>20103239</v>
+      </c>
+      <c r="M98" s="2">
+        <v>5182163</v>
+      </c>
+      <c r="N98" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="99" spans="10:14">
+      <c r="J99" t="s">
+        <v>66</v>
+      </c>
+      <c r="K99">
+        <v>5100876</v>
+      </c>
+      <c r="L99" s="2">
+        <v>20105134</v>
+      </c>
+      <c r="M99" s="2">
+        <v>7163074</v>
+      </c>
+      <c r="N99" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="10:14">
+      <c r="J100" t="s">
+        <v>66</v>
+      </c>
+      <c r="K100">
+        <v>5100876</v>
+      </c>
+      <c r="L100" s="2">
+        <v>20128738</v>
+      </c>
+      <c r="M100" s="2">
+        <v>56275427</v>
+      </c>
+      <c r="N100" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="10:14">
+      <c r="J101" t="s">
+        <v>68</v>
+      </c>
+      <c r="K101">
+        <v>5100876</v>
+      </c>
+      <c r="L101" s="2">
+        <v>20102615</v>
+      </c>
+      <c r="M101" s="2">
+        <v>4888684</v>
+      </c>
+      <c r="N101" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="10:14">
+      <c r="J102" t="s">
+        <v>68</v>
+      </c>
+      <c r="K102">
+        <v>5100876</v>
+      </c>
+      <c r="L102" s="2">
+        <v>20102623</v>
+      </c>
+      <c r="M102" s="2">
+        <v>4888685</v>
+      </c>
+      <c r="N102" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" spans="10:14">
+      <c r="J103" t="s">
+        <v>68</v>
+      </c>
+      <c r="K103">
+        <v>5100876</v>
+      </c>
+      <c r="L103" s="2">
+        <v>20102631</v>
+      </c>
+      <c r="M103" s="2">
+        <v>4888686</v>
+      </c>
+      <c r="N103" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="10:14">
+      <c r="J104" t="s">
+        <v>68</v>
+      </c>
+      <c r="K104">
+        <v>5100876</v>
+      </c>
+      <c r="L104" s="2">
+        <v>20102666</v>
+      </c>
+      <c r="M104" s="2">
+        <v>4888688</v>
+      </c>
+      <c r="N104" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="105" spans="10:14">
+      <c r="J105" t="s">
+        <v>68</v>
+      </c>
+      <c r="K105">
+        <v>5100876</v>
+      </c>
+      <c r="L105" s="2">
+        <v>20102674</v>
+      </c>
+      <c r="M105" s="2">
+        <v>4888689</v>
+      </c>
+      <c r="N105" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="106" spans="10:14">
+      <c r="J106" t="s">
+        <v>68</v>
+      </c>
+      <c r="K106">
+        <v>5100876</v>
+      </c>
+      <c r="L106" s="2">
+        <v>20102682</v>
+      </c>
+      <c r="M106" s="2">
+        <v>4888690</v>
+      </c>
+      <c r="N106" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="107" spans="10:14">
+      <c r="J107" t="s">
+        <v>68</v>
+      </c>
+      <c r="K107">
+        <v>5100876</v>
+      </c>
+      <c r="L107" s="2">
+        <v>20103239</v>
+      </c>
+      <c r="M107" s="2">
+        <v>5182163</v>
+      </c>
+      <c r="N107" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="108" spans="10:14">
+      <c r="J108" t="s">
+        <v>68</v>
+      </c>
+      <c r="K108">
+        <v>5100876</v>
+      </c>
+      <c r="L108" s="2">
+        <v>20105134</v>
+      </c>
+      <c r="M108" s="2">
+        <v>7163074</v>
+      </c>
+      <c r="N108" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="109" spans="10:14">
+      <c r="J109" t="s">
+        <v>68</v>
+      </c>
+      <c r="K109">
+        <v>5100876</v>
+      </c>
+      <c r="L109" s="2">
+        <v>20128738</v>
+      </c>
+      <c r="M109" s="2">
+        <v>56275427</v>
+      </c>
+      <c r="N109" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="110" spans="10:14">
+      <c r="J110" t="s">
+        <v>69</v>
+      </c>
+      <c r="K110">
+        <v>5100876</v>
+      </c>
+      <c r="L110" s="2">
+        <v>20102615</v>
+      </c>
+      <c r="M110" s="2">
+        <v>4888684</v>
+      </c>
+      <c r="N110" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" spans="10:14">
+      <c r="J111" t="s">
+        <v>69</v>
+      </c>
+      <c r="K111">
+        <v>5100876</v>
+      </c>
+      <c r="L111" s="2">
+        <v>20102623</v>
+      </c>
+      <c r="M111" s="2">
+        <v>4888685</v>
+      </c>
+      <c r="N111" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="112" spans="10:14">
+      <c r="J112" t="s">
+        <v>69</v>
+      </c>
+      <c r="K112">
+        <v>5100876</v>
+      </c>
+      <c r="L112" s="2">
+        <v>20102631</v>
+      </c>
+      <c r="M112" s="2">
+        <v>4888686</v>
+      </c>
+      <c r="N112" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="10:14">
+      <c r="J113" t="s">
+        <v>69</v>
+      </c>
+      <c r="K113">
+        <v>5100876</v>
+      </c>
+      <c r="L113" s="2">
+        <v>20102666</v>
+      </c>
+      <c r="M113" s="2">
+        <v>4888688</v>
+      </c>
+      <c r="N113" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="114" spans="10:14">
+      <c r="J114" t="s">
+        <v>69</v>
+      </c>
+      <c r="K114">
+        <v>5100876</v>
+      </c>
+      <c r="L114" s="2">
+        <v>20102674</v>
+      </c>
+      <c r="M114" s="2">
+        <v>4888689</v>
+      </c>
+      <c r="N114" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="10:14">
+      <c r="J115" t="s">
+        <v>69</v>
+      </c>
+      <c r="K115">
+        <v>5100876</v>
+      </c>
+      <c r="L115" s="2">
+        <v>20102682</v>
+      </c>
+      <c r="M115" s="2">
+        <v>4888690</v>
+      </c>
+      <c r="N115" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="116" spans="10:14">
+      <c r="J116" t="s">
+        <v>69</v>
+      </c>
+      <c r="K116">
+        <v>5100876</v>
+      </c>
+      <c r="L116" s="2">
+        <v>20103239</v>
+      </c>
+      <c r="M116" s="2">
+        <v>5182163</v>
+      </c>
+      <c r="N116" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="10:14">
+      <c r="J117" t="s">
+        <v>69</v>
+      </c>
+      <c r="K117">
+        <v>5100876</v>
+      </c>
+      <c r="L117" s="2">
+        <v>20105134</v>
+      </c>
+      <c r="M117" s="2">
+        <v>7163074</v>
+      </c>
+      <c r="N117" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="118" spans="10:14">
+      <c r="J118" t="s">
+        <v>69</v>
+      </c>
+      <c r="K118">
+        <v>5100876</v>
+      </c>
+      <c r="L118" s="2">
+        <v>20128738</v>
+      </c>
+      <c r="M118" s="2">
+        <v>56275427</v>
+      </c>
+      <c r="N118" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/svbWebPaymentUsers/MarkFinalQA.xlsx
+++ b/svbWebPaymentUsers/MarkFinalQA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="3280" windowWidth="21320" windowHeight="12540" tabRatio="114" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="300" yWindow="20" windowWidth="21320" windowHeight="12540" tabRatio="114" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mark QA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="99">
   <si>
     <t>a</t>
   </si>
@@ -257,6 +257,66 @@
   </si>
   <si>
     <t>adduser001</t>
+  </si>
+  <si>
+    <t>ckve3843</t>
+  </si>
+  <si>
+    <t>ckve3844</t>
+  </si>
+  <si>
+    <t>ckve3845</t>
+  </si>
+  <si>
+    <t>ckve3846</t>
+  </si>
+  <si>
+    <t>ckve3847</t>
+  </si>
+  <si>
+    <t>ckve3848</t>
+  </si>
+  <si>
+    <t>ckve3849</t>
+  </si>
+  <si>
+    <t>ckve3850</t>
+  </si>
+  <si>
+    <t>ckve3851</t>
+  </si>
+  <si>
+    <t>ckve3852</t>
+  </si>
+  <si>
+    <t>ckve3853</t>
+  </si>
+  <si>
+    <t>ckve3854</t>
+  </si>
+  <si>
+    <t>ckve3855</t>
+  </si>
+  <si>
+    <t>ckve3856</t>
+  </si>
+  <si>
+    <t>ckve3857</t>
+  </si>
+  <si>
+    <t>ckve3858</t>
+  </si>
+  <si>
+    <t>ckve3859</t>
+  </si>
+  <si>
+    <t>ckve3860</t>
+  </si>
+  <si>
+    <t>ckve3861</t>
+  </si>
+  <si>
+    <t>ckve3862</t>
   </si>
 </sst>
 </file>
@@ -324,8 +384,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="127">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -477,7 +539,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="127">
+  <cellStyles count="129">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -541,6 +603,7 @@
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -604,6 +667,7 @@
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -950,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO118"/>
+  <dimension ref="A1:AO100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="C24" sqref="A24:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1170,6 +1234,12 @@
       </c>
     </row>
     <row r="7" spans="1:41">
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="J7" t="s">
         <v>73</v>
       </c>
@@ -1187,6 +1257,12 @@
       </c>
     </row>
     <row r="8" spans="1:41">
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="J8" t="s">
         <v>73</v>
       </c>
@@ -1204,684 +1280,1067 @@
       </c>
     </row>
     <row r="9" spans="1:41">
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="J9" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9">
+        <v>5030870</v>
+      </c>
+      <c r="L9" s="9">
         <v>20100167</v>
       </c>
-      <c r="L9" s="9">
+      <c r="M9" s="9">
         <v>2102897</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="N9" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:41">
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="J10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10">
+        <v>5030870</v>
+      </c>
+      <c r="L10" s="9">
         <v>20100175</v>
       </c>
-      <c r="L10" s="9">
+      <c r="M10" s="9">
         <v>2102896</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="N10" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:41">
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="J11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11">
+        <v>5030870</v>
+      </c>
+      <c r="L11" s="9">
         <v>20133790</v>
       </c>
-      <c r="L11" s="9">
+      <c r="M11" s="9">
         <v>81325842</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="N11" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:41">
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="J12" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12">
+        <v>5030870</v>
+      </c>
+      <c r="L12" s="2">
         <v>20100167</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>2102897</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:41">
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="J13" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13">
+        <v>5030870</v>
+      </c>
+      <c r="L13" s="2">
         <v>20100175</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>2102896</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:41">
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="J14" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14">
+        <v>5030870</v>
+      </c>
+      <c r="L14" s="2">
         <v>20133790</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>81325842</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:41">
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="J15" t="s">
         <v>76</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15">
+        <v>5030870</v>
+      </c>
+      <c r="L15" s="2">
         <v>20100167</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <v>2102897</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:41">
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="J16" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16">
+        <v>5030870</v>
+      </c>
+      <c r="L16" s="2">
         <v>20100175</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <v>2102896</v>
       </c>
-      <c r="M16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="10:13">
+      <c r="N16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="J17" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17">
+        <v>5030870</v>
+      </c>
+      <c r="L17" s="2">
         <v>20133790</v>
       </c>
-      <c r="L17" s="2">
+      <c r="M17" s="2">
         <v>81325842</v>
       </c>
-      <c r="M17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="10:13">
+      <c r="N17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="J18" t="s">
         <v>77</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18">
+        <v>5030870</v>
+      </c>
+      <c r="L18" s="2">
         <v>20100167</v>
       </c>
-      <c r="L18" s="2">
+      <c r="M18" s="2">
         <v>2102897</v>
       </c>
-      <c r="M18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="10:13">
+      <c r="N18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="J19" t="s">
         <v>77</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19">
+        <v>5030870</v>
+      </c>
+      <c r="L19" s="2">
         <v>20100175</v>
       </c>
-      <c r="L19" s="2">
+      <c r="M19" s="2">
         <v>2102896</v>
       </c>
-      <c r="M19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="10:13">
+      <c r="N19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="J20" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20">
+        <v>5030870</v>
+      </c>
+      <c r="L20" s="2">
         <v>20133790</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <v>81325842</v>
       </c>
-      <c r="M20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="10:13">
+      <c r="N20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="J21" t="s">
         <v>70</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21">
+        <v>5030870</v>
+      </c>
+      <c r="L21" s="2">
         <v>20100167</v>
       </c>
-      <c r="L21" s="2">
+      <c r="M21" s="2">
         <v>2102897</v>
       </c>
-      <c r="M21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="10:13">
+      <c r="N21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="J22" t="s">
         <v>70</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22">
+        <v>5030870</v>
+      </c>
+      <c r="L22" s="2">
         <v>20100175</v>
       </c>
-      <c r="L22" s="2">
+      <c r="M22" s="2">
         <v>2102896</v>
       </c>
-      <c r="M22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="10:13">
+      <c r="N22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="J23" t="s">
         <v>70</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23">
+        <v>5030870</v>
+      </c>
+      <c r="L23" s="2">
         <v>20133790</v>
       </c>
-      <c r="L23" s="2">
+      <c r="M23" s="2">
         <v>81325842</v>
       </c>
-      <c r="M23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="10:13">
+      <c r="N23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J24" t="s">
         <v>78</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24">
+        <v>5030870</v>
+      </c>
+      <c r="L24" s="2">
         <v>20100167</v>
       </c>
-      <c r="L24" s="2">
+      <c r="M24" s="2">
         <v>2102897</v>
       </c>
-      <c r="M24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="10:13">
+      <c r="N24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="J25" t="s">
         <v>78</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25">
+        <v>5030870</v>
+      </c>
+      <c r="L25" s="2">
         <v>20100175</v>
       </c>
-      <c r="L25" s="2">
+      <c r="M25" s="2">
         <v>2102896</v>
       </c>
-      <c r="M25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="10:13">
+      <c r="N25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="J26" t="s">
         <v>78</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26">
+        <v>5030870</v>
+      </c>
+      <c r="L26" s="2">
         <v>20133790</v>
       </c>
-      <c r="L26" s="2">
+      <c r="M26" s="2">
         <v>81325842</v>
       </c>
-      <c r="M26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="10:13">
-      <c r="K27"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="10:13">
-      <c r="K28"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="10:13">
-      <c r="K29"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="10:13">
-      <c r="K30"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="10:13">
-      <c r="K31"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="10:13">
-      <c r="K32"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:24">
-      <c r="K33"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="1:24">
-      <c r="K34"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="1:24">
-      <c r="K35"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="1:24">
-      <c r="K36"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:24">
-      <c r="K37"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="1:24">
-      <c r="K38"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="1:24">
-      <c r="K39"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="1:24">
-      <c r="K40"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:24">
-      <c r="K41"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="1:24">
-      <c r="K42"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:24">
-      <c r="K43"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="46" spans="1:24">
-      <c r="A46" t="s">
+      <c r="N26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B28" t="s">
         <v>0</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F28" s="5">
         <v>5005797</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H28" t="s">
         <v>34</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="1">
+      <c r="K28" s="5"/>
+      <c r="L28" s="1">
         <v>20117337</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M28" s="2">
         <v>30022060</v>
       </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s">
+      <c r="N28" s="2"/>
+      <c r="O28" t="s">
         <v>38</v>
       </c>
-      <c r="U46" t="s">
+      <c r="U28" t="s">
         <v>39</v>
       </c>
-      <c r="V46" t="s">
+      <c r="V28" t="s">
         <v>40</v>
       </c>
-      <c r="X46" s="5">
+      <c r="X28" s="5">
         <v>5005797</v>
       </c>
     </row>
-    <row r="53" spans="6:22">
-      <c r="F53" s="5">
+    <row r="35" spans="6:22">
+      <c r="F35" s="5">
         <v>5119156</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H35" t="s">
         <v>34</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="I35" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="6:22">
-      <c r="V55" t="s">
+    <row r="37" spans="6:22">
+      <c r="V37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="6:22">
-      <c r="F57" s="3">
+    <row r="39" spans="6:22">
+      <c r="F39" s="3">
         <v>5107936</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H39" t="s">
         <v>34</v>
       </c>
-      <c r="I57" s="5" t="s">
+      <c r="I39" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K39" s="3">
         <v>5107936</v>
       </c>
-      <c r="L57" s="2">
+      <c r="L39" s="2">
         <v>20104448</v>
       </c>
-      <c r="M57" s="2">
+      <c r="M39" s="2">
         <v>6665576</v>
       </c>
+      <c r="N39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="6:22">
+      <c r="J40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" s="3">
+        <v>5107936</v>
+      </c>
+      <c r="L40" s="2">
+        <v>20104472</v>
+      </c>
+      <c r="M40" s="2">
+        <v>6665767</v>
+      </c>
+      <c r="N40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="6:22">
+      <c r="J41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K41" s="3">
+        <v>5107936</v>
+      </c>
+    </row>
+    <row r="42" spans="6:22">
+      <c r="J42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K42" s="3">
+        <v>5107936</v>
+      </c>
+    </row>
+    <row r="43" spans="6:22">
+      <c r="J43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K43" s="3">
+        <v>5107936</v>
+      </c>
+    </row>
+    <row r="48" spans="6:22">
+      <c r="F48" s="7">
+        <v>5011486</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J48" t="s">
+        <v>43</v>
+      </c>
+      <c r="L48" s="1">
+        <v>20109180</v>
+      </c>
+      <c r="M48" s="2">
+        <v>13008542</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s">
+        <v>38</v>
+      </c>
+      <c r="U48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="6:14">
+      <c r="F54" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J54" t="s">
+        <v>46</v>
+      </c>
+      <c r="K54" s="5"/>
+    </row>
+    <row r="56" spans="6:14">
+      <c r="J56" t="s">
+        <v>52</v>
+      </c>
+      <c r="K56">
+        <v>5100876</v>
+      </c>
+      <c r="L56">
+        <v>20102615</v>
+      </c>
+      <c r="M56">
+        <v>4888684</v>
+      </c>
+      <c r="N56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="6:14">
+      <c r="J57" t="s">
+        <v>52</v>
+      </c>
+      <c r="K57">
+        <v>5100876</v>
+      </c>
+      <c r="L57">
+        <v>20102623</v>
+      </c>
+      <c r="M57">
+        <v>4888685</v>
+      </c>
       <c r="N57" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="6:22">
-      <c r="J58" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K58" s="3">
-        <v>5107936</v>
-      </c>
-      <c r="L58" s="2">
-        <v>20104472</v>
-      </c>
-      <c r="M58" s="2">
-        <v>6665767</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="6:14">
+      <c r="J58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K58">
+        <v>5100876</v>
+      </c>
+      <c r="L58">
+        <v>20102631</v>
+      </c>
+      <c r="M58">
+        <v>4888686</v>
       </c>
       <c r="N58" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="6:22">
-      <c r="J59" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K59" s="3">
-        <v>5107936</v>
-      </c>
-    </row>
-    <row r="60" spans="6:22">
-      <c r="J60" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K60" s="3">
-        <v>5107936</v>
-      </c>
-    </row>
-    <row r="61" spans="6:22">
-      <c r="J61" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K61" s="3">
-        <v>5107936</v>
-      </c>
-    </row>
-    <row r="66" spans="6:21">
-      <c r="F66" s="7">
-        <v>5011486</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H66" t="s">
-        <v>34</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="6:14">
+      <c r="J59" t="s">
+        <v>52</v>
+      </c>
+      <c r="K59">
+        <v>5100876</v>
+      </c>
+      <c r="L59">
+        <v>20102666</v>
+      </c>
+      <c r="M59">
+        <v>4888688</v>
+      </c>
+      <c r="N59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="6:14">
+      <c r="J60" t="s">
+        <v>52</v>
+      </c>
+      <c r="K60">
+        <v>5100876</v>
+      </c>
+      <c r="L60">
+        <v>20102674</v>
+      </c>
+      <c r="M60">
+        <v>4888689</v>
+      </c>
+      <c r="N60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="6:14">
+      <c r="J61" t="s">
+        <v>52</v>
+      </c>
+      <c r="K61">
+        <v>5100876</v>
+      </c>
+      <c r="L61">
+        <v>20102682</v>
+      </c>
+      <c r="M61">
+        <v>4888690</v>
+      </c>
+      <c r="N61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="6:14">
+      <c r="J62" t="s">
+        <v>52</v>
+      </c>
+      <c r="K62">
+        <v>5100876</v>
+      </c>
+      <c r="L62">
+        <v>20103239</v>
+      </c>
+      <c r="M62">
+        <v>5182163</v>
+      </c>
+      <c r="N62" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="6:14">
+      <c r="F63" s="5"/>
+      <c r="G63" s="4"/>
+      <c r="I63" s="5"/>
+      <c r="J63" t="s">
+        <v>52</v>
+      </c>
+      <c r="K63">
+        <v>5100876</v>
+      </c>
+      <c r="L63">
+        <v>20105134</v>
+      </c>
+      <c r="M63">
+        <v>7163074</v>
+      </c>
+      <c r="N63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="6:14">
+      <c r="J64" t="s">
+        <v>52</v>
+      </c>
+      <c r="K64">
+        <v>5100876</v>
+      </c>
+      <c r="L64">
+        <v>20128738</v>
+      </c>
+      <c r="M64">
+        <v>56275427</v>
+      </c>
+      <c r="N64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="10:14">
+      <c r="J65" t="s">
+        <v>55</v>
+      </c>
+      <c r="K65">
+        <v>5100876</v>
+      </c>
+      <c r="L65" s="2">
+        <v>20102615</v>
+      </c>
+      <c r="M65" s="2">
+        <v>4888684</v>
+      </c>
+      <c r="N65" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="10:14">
       <c r="J66" t="s">
-        <v>43</v>
-      </c>
-      <c r="L66" s="1">
-        <v>20109180</v>
+        <v>55</v>
+      </c>
+      <c r="K66">
+        <v>5100876</v>
+      </c>
+      <c r="L66" s="2">
+        <v>20102623</v>
       </c>
       <c r="M66" s="2">
-        <v>13008542</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s">
-        <v>38</v>
-      </c>
-      <c r="U66" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="6:21">
-      <c r="F72" s="5">
-        <v>5100876</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>4888685</v>
+      </c>
+      <c r="N66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="10:14">
+      <c r="J67" t="s">
+        <v>55</v>
+      </c>
+      <c r="K67">
+        <v>5100876</v>
+      </c>
+      <c r="L67" s="2">
+        <v>20102631</v>
+      </c>
+      <c r="M67" s="2">
+        <v>4888686</v>
+      </c>
+      <c r="N67" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="10:14">
+      <c r="J68" t="s">
+        <v>55</v>
+      </c>
+      <c r="K68">
+        <v>5100876</v>
+      </c>
+      <c r="L68" s="2">
+        <v>20102666</v>
+      </c>
+      <c r="M68" s="2">
+        <v>4888688</v>
+      </c>
+      <c r="N68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="10:14">
+      <c r="J69" t="s">
+        <v>55</v>
+      </c>
+      <c r="K69">
+        <v>5100876</v>
+      </c>
+      <c r="L69" s="2">
+        <v>20102674</v>
+      </c>
+      <c r="M69" s="2">
+        <v>4888689</v>
+      </c>
+      <c r="N69" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="10:14">
+      <c r="J70" t="s">
+        <v>55</v>
+      </c>
+      <c r="K70">
+        <v>5100876</v>
+      </c>
+      <c r="L70" s="2">
+        <v>20102682</v>
+      </c>
+      <c r="M70" s="2">
+        <v>4888690</v>
+      </c>
+      <c r="N70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="10:14">
+      <c r="J71" t="s">
+        <v>55</v>
+      </c>
+      <c r="K71">
+        <v>5100876</v>
+      </c>
+      <c r="L71" s="2">
+        <v>20103239</v>
+      </c>
+      <c r="M71" s="2">
+        <v>5182163</v>
+      </c>
+      <c r="N71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="10:14">
       <c r="J72" t="s">
-        <v>46</v>
-      </c>
-      <c r="K72" s="5"/>
-    </row>
-    <row r="74" spans="6:21">
+        <v>55</v>
+      </c>
+      <c r="K72">
+        <v>5100876</v>
+      </c>
+      <c r="L72" s="2">
+        <v>20105134</v>
+      </c>
+      <c r="M72" s="2">
+        <v>7163074</v>
+      </c>
+      <c r="N72" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="10:14">
+      <c r="J73" t="s">
+        <v>55</v>
+      </c>
+      <c r="K73">
+        <v>5100876</v>
+      </c>
+      <c r="L73" s="2">
+        <v>20128738</v>
+      </c>
+      <c r="M73" s="2">
+        <v>56275427</v>
+      </c>
+      <c r="N73" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="10:14">
       <c r="J74" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K74">
         <v>5100876</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="2">
         <v>20102615</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="2">
         <v>4888684</v>
       </c>
       <c r="N74" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="6:21">
+    <row r="75" spans="10:14">
       <c r="J75" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K75">
         <v>5100876</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="2">
         <v>20102623</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="2">
         <v>4888685</v>
       </c>
       <c r="N75" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="6:21">
+    <row r="76" spans="10:14">
       <c r="J76" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K76">
         <v>5100876</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="2">
         <v>20102631</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="2">
         <v>4888686</v>
       </c>
       <c r="N76" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="6:21">
+    <row r="77" spans="10:14">
       <c r="J77" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K77">
         <v>5100876</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="2">
         <v>20102666</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="2">
         <v>4888688</v>
       </c>
       <c r="N77" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="6:21">
+    <row r="78" spans="10:14">
       <c r="J78" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K78">
         <v>5100876</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="2">
         <v>20102674</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="2">
         <v>4888689</v>
       </c>
       <c r="N78" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="6:21">
+    <row r="79" spans="10:14">
       <c r="J79" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K79">
         <v>5100876</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="2">
         <v>20102682</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="2">
         <v>4888690</v>
       </c>
       <c r="N79" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="6:21">
+    <row r="80" spans="10:14">
       <c r="J80" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K80">
         <v>5100876</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="2">
         <v>20103239</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="2">
         <v>5182163</v>
       </c>
       <c r="N80" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="6:14">
-      <c r="F81" s="5"/>
-      <c r="G81" s="4"/>
-      <c r="I81" s="5"/>
+    <row r="81" spans="10:14">
       <c r="J81" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K81">
         <v>5100876</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="2">
         <v>20105134</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="2">
         <v>7163074</v>
       </c>
       <c r="N81" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="6:14">
+    <row r="82" spans="10:14">
       <c r="J82" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K82">
         <v>5100876</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="2">
         <v>20128738</v>
       </c>
-      <c r="M82">
+      <c r="M82" s="2">
         <v>56275427</v>
       </c>
       <c r="N82" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="6:14">
+    <row r="83" spans="10:14">
       <c r="J83" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="K83">
         <v>5100876</v>
@@ -1896,9 +2355,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="6:14">
+    <row r="84" spans="10:14">
       <c r="J84" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="K84">
         <v>5100876</v>
@@ -1913,9 +2372,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="6:14">
+    <row r="85" spans="10:14">
       <c r="J85" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="K85">
         <v>5100876</v>
@@ -1930,9 +2389,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="6:14">
+    <row r="86" spans="10:14">
       <c r="J86" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="K86">
         <v>5100876</v>
@@ -1947,9 +2406,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="6:14">
+    <row r="87" spans="10:14">
       <c r="J87" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="K87">
         <v>5100876</v>
@@ -1964,9 +2423,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="6:14">
+    <row r="88" spans="10:14">
       <c r="J88" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="K88">
         <v>5100876</v>
@@ -1981,9 +2440,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="6:14">
+    <row r="89" spans="10:14">
       <c r="J89" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="K89">
         <v>5100876</v>
@@ -1998,9 +2457,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="6:14">
+    <row r="90" spans="10:14">
       <c r="J90" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="K90">
         <v>5100876</v>
@@ -2015,9 +2474,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="6:14">
+    <row r="91" spans="10:14">
       <c r="J91" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="K91">
         <v>5100876</v>
@@ -2032,9 +2491,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="6:14">
+    <row r="92" spans="10:14">
       <c r="J92" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K92">
         <v>5100876</v>
@@ -2046,12 +2505,12 @@
         <v>4888684</v>
       </c>
       <c r="N92" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="93" spans="6:14">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="10:14">
       <c r="J93" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K93">
         <v>5100876</v>
@@ -2063,12 +2522,12 @@
         <v>4888685</v>
       </c>
       <c r="N93" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="94" spans="6:14">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="10:14">
       <c r="J94" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K94">
         <v>5100876</v>
@@ -2080,12 +2539,12 @@
         <v>4888686</v>
       </c>
       <c r="N94" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="95" spans="6:14">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="10:14">
       <c r="J95" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K95">
         <v>5100876</v>
@@ -2097,12 +2556,12 @@
         <v>4888688</v>
       </c>
       <c r="N95" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="96" spans="6:14">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="10:14">
       <c r="J96" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K96">
         <v>5100876</v>
@@ -2114,12 +2573,12 @@
         <v>4888689</v>
       </c>
       <c r="N96" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="10:14">
       <c r="J97" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K97">
         <v>5100876</v>
@@ -2131,12 +2590,12 @@
         <v>4888690</v>
       </c>
       <c r="N97" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="10:14">
       <c r="J98" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K98">
         <v>5100876</v>
@@ -2148,12 +2607,12 @@
         <v>5182163</v>
       </c>
       <c r="N98" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="10:14">
       <c r="J99" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K99">
         <v>5100876</v>
@@ -2165,12 +2624,12 @@
         <v>7163074</v>
       </c>
       <c r="N99" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="10:14">
       <c r="J100" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K100">
         <v>5100876</v>
@@ -2182,312 +2641,6 @@
         <v>56275427</v>
       </c>
       <c r="N100" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="101" spans="10:14">
-      <c r="J101" t="s">
-        <v>68</v>
-      </c>
-      <c r="K101">
-        <v>5100876</v>
-      </c>
-      <c r="L101" s="2">
-        <v>20102615</v>
-      </c>
-      <c r="M101" s="2">
-        <v>4888684</v>
-      </c>
-      <c r="N101" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="102" spans="10:14">
-      <c r="J102" t="s">
-        <v>68</v>
-      </c>
-      <c r="K102">
-        <v>5100876</v>
-      </c>
-      <c r="L102" s="2">
-        <v>20102623</v>
-      </c>
-      <c r="M102" s="2">
-        <v>4888685</v>
-      </c>
-      <c r="N102" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="103" spans="10:14">
-      <c r="J103" t="s">
-        <v>68</v>
-      </c>
-      <c r="K103">
-        <v>5100876</v>
-      </c>
-      <c r="L103" s="2">
-        <v>20102631</v>
-      </c>
-      <c r="M103" s="2">
-        <v>4888686</v>
-      </c>
-      <c r="N103" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="104" spans="10:14">
-      <c r="J104" t="s">
-        <v>68</v>
-      </c>
-      <c r="K104">
-        <v>5100876</v>
-      </c>
-      <c r="L104" s="2">
-        <v>20102666</v>
-      </c>
-      <c r="M104" s="2">
-        <v>4888688</v>
-      </c>
-      <c r="N104" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="105" spans="10:14">
-      <c r="J105" t="s">
-        <v>68</v>
-      </c>
-      <c r="K105">
-        <v>5100876</v>
-      </c>
-      <c r="L105" s="2">
-        <v>20102674</v>
-      </c>
-      <c r="M105" s="2">
-        <v>4888689</v>
-      </c>
-      <c r="N105" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="106" spans="10:14">
-      <c r="J106" t="s">
-        <v>68</v>
-      </c>
-      <c r="K106">
-        <v>5100876</v>
-      </c>
-      <c r="L106" s="2">
-        <v>20102682</v>
-      </c>
-      <c r="M106" s="2">
-        <v>4888690</v>
-      </c>
-      <c r="N106" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="107" spans="10:14">
-      <c r="J107" t="s">
-        <v>68</v>
-      </c>
-      <c r="K107">
-        <v>5100876</v>
-      </c>
-      <c r="L107" s="2">
-        <v>20103239</v>
-      </c>
-      <c r="M107" s="2">
-        <v>5182163</v>
-      </c>
-      <c r="N107" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="108" spans="10:14">
-      <c r="J108" t="s">
-        <v>68</v>
-      </c>
-      <c r="K108">
-        <v>5100876</v>
-      </c>
-      <c r="L108" s="2">
-        <v>20105134</v>
-      </c>
-      <c r="M108" s="2">
-        <v>7163074</v>
-      </c>
-      <c r="N108" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="109" spans="10:14">
-      <c r="J109" t="s">
-        <v>68</v>
-      </c>
-      <c r="K109">
-        <v>5100876</v>
-      </c>
-      <c r="L109" s="2">
-        <v>20128738</v>
-      </c>
-      <c r="M109" s="2">
-        <v>56275427</v>
-      </c>
-      <c r="N109" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="110" spans="10:14">
-      <c r="J110" t="s">
-        <v>69</v>
-      </c>
-      <c r="K110">
-        <v>5100876</v>
-      </c>
-      <c r="L110" s="2">
-        <v>20102615</v>
-      </c>
-      <c r="M110" s="2">
-        <v>4888684</v>
-      </c>
-      <c r="N110" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="111" spans="10:14">
-      <c r="J111" t="s">
-        <v>69</v>
-      </c>
-      <c r="K111">
-        <v>5100876</v>
-      </c>
-      <c r="L111" s="2">
-        <v>20102623</v>
-      </c>
-      <c r="M111" s="2">
-        <v>4888685</v>
-      </c>
-      <c r="N111" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="112" spans="10:14">
-      <c r="J112" t="s">
-        <v>69</v>
-      </c>
-      <c r="K112">
-        <v>5100876</v>
-      </c>
-      <c r="L112" s="2">
-        <v>20102631</v>
-      </c>
-      <c r="M112" s="2">
-        <v>4888686</v>
-      </c>
-      <c r="N112" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="113" spans="10:14">
-      <c r="J113" t="s">
-        <v>69</v>
-      </c>
-      <c r="K113">
-        <v>5100876</v>
-      </c>
-      <c r="L113" s="2">
-        <v>20102666</v>
-      </c>
-      <c r="M113" s="2">
-        <v>4888688</v>
-      </c>
-      <c r="N113" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="114" spans="10:14">
-      <c r="J114" t="s">
-        <v>69</v>
-      </c>
-      <c r="K114">
-        <v>5100876</v>
-      </c>
-      <c r="L114" s="2">
-        <v>20102674</v>
-      </c>
-      <c r="M114" s="2">
-        <v>4888689</v>
-      </c>
-      <c r="N114" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="115" spans="10:14">
-      <c r="J115" t="s">
-        <v>69</v>
-      </c>
-      <c r="K115">
-        <v>5100876</v>
-      </c>
-      <c r="L115" s="2">
-        <v>20102682</v>
-      </c>
-      <c r="M115" s="2">
-        <v>4888690</v>
-      </c>
-      <c r="N115" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="116" spans="10:14">
-      <c r="J116" t="s">
-        <v>69</v>
-      </c>
-      <c r="K116">
-        <v>5100876</v>
-      </c>
-      <c r="L116" s="2">
-        <v>20103239</v>
-      </c>
-      <c r="M116" s="2">
-        <v>5182163</v>
-      </c>
-      <c r="N116" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="117" spans="10:14">
-      <c r="J117" t="s">
-        <v>69</v>
-      </c>
-      <c r="K117">
-        <v>5100876</v>
-      </c>
-      <c r="L117" s="2">
-        <v>20105134</v>
-      </c>
-      <c r="M117" s="2">
-        <v>7163074</v>
-      </c>
-      <c r="N117" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="118" spans="10:14">
-      <c r="J118" t="s">
-        <v>69</v>
-      </c>
-      <c r="K118">
-        <v>5100876</v>
-      </c>
-      <c r="L118" s="2">
-        <v>20128738</v>
-      </c>
-      <c r="M118" s="2">
-        <v>56275427</v>
-      </c>
-      <c r="N118" t="s">
         <v>64</v>
       </c>
     </row>

--- a/svbWebPaymentUsers/MarkFinalQA.xlsx
+++ b/svbWebPaymentUsers/MarkFinalQA.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31780" yWindow="7600" windowWidth="28460" windowHeight="11580" tabRatio="114" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="63420" yWindow="640" windowWidth="30840" windowHeight="15060" tabRatio="201" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mark QA" sheetId="1" r:id="rId1"/>
     <sheet name="master" sheetId="2" r:id="rId2"/>
+    <sheet name="ReArranged" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="102">
   <si>
     <t>a</t>
   </si>
@@ -266,6 +267,66 @@
   </si>
   <si>
     <t>CREATE_PAYMENT_FPS</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>entitlements</t>
+  </si>
+  <si>
+    <t>maxTranAmount</t>
+  </si>
+  <si>
+    <t>maxDailyCumlativeLimit</t>
+  </si>
+  <si>
+    <t>clientTransactionLimit</t>
+  </si>
+  <si>
+    <t>clientDailyLimit</t>
+  </si>
+  <si>
+    <t>ctv1</t>
+  </si>
+  <si>
+    <t>ctv2</t>
+  </si>
+  <si>
+    <t>ctv3</t>
+  </si>
+  <si>
+    <t>ctv4</t>
+  </si>
+  <si>
+    <t>Susan,6508679351</t>
+  </si>
+  <si>
+    <t>Liam,7710854675</t>
+  </si>
+  <si>
+    <t>Mark,7079532210</t>
+  </si>
+  <si>
+    <t>Dtee,4159523833</t>
+  </si>
+  <si>
+    <t>Dtee,4159523834</t>
+  </si>
+  <si>
+    <t>danielfox</t>
+  </si>
+  <si>
+    <t>clientId</t>
+  </si>
+  <si>
+    <t>loginName</t>
+  </si>
+  <si>
+    <t>accountNumber</t>
+  </si>
+  <si>
+    <t>accountId</t>
   </si>
 </sst>
 </file>
@@ -318,7 +379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -326,8 +387,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="165">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -493,34 +569,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="165">
+  <cellStyles count="181">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -603,6 +708,14 @@
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -685,9 +798,135 @@
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF3366FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF000090"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9411A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD81C20"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF11E634"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1160,2265 +1399,2487 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO76"/>
+  <dimension ref="A1:AP74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="2"/>
-    <col min="7" max="7" width="33.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
-    <col min="11" max="11" width="22" style="7" customWidth="1"/>
-    <col min="12" max="13" width="10.83203125" style="7"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="18" max="23" width="13" customWidth="1"/>
-    <col min="24" max="24" width="14.5" customWidth="1"/>
-    <col min="26" max="33" width="13" customWidth="1"/>
-    <col min="38" max="41" width="13" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="8.5" style="2" customWidth="1"/>
+    <col min="3" max="5" width="4" style="2" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="3"/>
+    <col min="8" max="8" width="33.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="13" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="22" style="5" customWidth="1"/>
+    <col min="13" max="14" width="10.83203125" style="5"/>
+    <col min="15" max="15" width="12" style="2" customWidth="1"/>
+    <col min="16" max="18" width="10.83203125" style="2"/>
+    <col min="19" max="24" width="13" style="2" customWidth="1"/>
+    <col min="25" max="25" width="14.5" style="2" customWidth="1"/>
+    <col min="26" max="26" width="10.83203125" style="2"/>
+    <col min="27" max="34" width="13" style="2" customWidth="1"/>
+    <col min="35" max="38" width="10.83203125" style="2"/>
+    <col min="39" max="42" width="13" style="2" customWidth="1"/>
+    <col min="43" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
-      <c r="A1" t="s">
+    <row r="1" spans="1:42">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-    </row>
-    <row r="2" spans="1:41">
-      <c r="B2" t="s">
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+    </row>
+    <row r="2" spans="1:42">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="6">
         <v>5167510</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1">
+        <v>1472708</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="9">
+      <c r="L2" s="9">
         <v>5167510</v>
       </c>
-      <c r="L2">
+      <c r="M2" s="2">
         <v>20127596</v>
       </c>
-      <c r="M2">
+      <c r="N2" s="2">
         <v>53597706</v>
       </c>
-      <c r="N2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="X2" s="1">
+      <c r="O2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="Y2" s="4">
         <v>5167510</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="4">
         <v>1472708</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="AJ2" s="3">
         <v>1</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
-      <c r="F3" s="3">
+    <row r="3" spans="1:42">
+      <c r="F3" s="6">
         <v>5167510</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1">
+        <v>1473036</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="9">
+      <c r="L3" s="9">
         <v>5167510</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="5">
         <v>20127596</v>
       </c>
-      <c r="M3" s="7">
+      <c r="N3" s="5">
         <v>53597706</v>
       </c>
-      <c r="N3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41">
-      <c r="F6" s="3">
-        <v>5030870</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="O3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="F4" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1100798</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="7">
-        <v>5030870</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="L4" s="5">
+        <v>5030870</v>
+      </c>
+      <c r="M4" s="5">
         <v>20100167</v>
       </c>
-      <c r="M6" s="7">
+      <c r="N4" s="5">
         <v>2102897</v>
       </c>
-      <c r="N6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41">
-      <c r="F7" s="3">
-        <v>5030870</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="O4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="F5" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1100798</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="7">
-        <v>5030870</v>
-      </c>
-      <c r="L7" s="7">
+      <c r="L5" s="5">
+        <v>5030870</v>
+      </c>
+      <c r="M5" s="5">
         <v>20100175</v>
       </c>
-      <c r="M7" s="7">
+      <c r="N5" s="5">
         <v>2102896</v>
       </c>
-      <c r="N7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41">
-      <c r="F8" s="3">
-        <v>5030870</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="O5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="F6" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1100798</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7">
-        <v>5030870</v>
-      </c>
-      <c r="L8" s="7">
+      <c r="L6" s="5">
+        <v>5030870</v>
+      </c>
+      <c r="M6" s="5">
         <v>20133790</v>
       </c>
-      <c r="M8" s="7">
+      <c r="N6" s="5">
         <v>81325842</v>
       </c>
-      <c r="N8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41">
-      <c r="F9" s="3">
-        <v>5030870</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="O6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="F7" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1142212</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7">
-        <v>5030870</v>
-      </c>
-      <c r="L9" s="8">
+      <c r="L7" s="5">
+        <v>5030870</v>
+      </c>
+      <c r="M7" s="11">
         <v>20100167</v>
       </c>
-      <c r="M9" s="8">
+      <c r="N7" s="11">
         <v>2102897</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41">
-      <c r="F10" s="3">
-        <v>5030870</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="O7" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="F8" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1142212</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="7">
-        <v>5030870</v>
-      </c>
-      <c r="L10" s="8">
+      <c r="L8" s="5">
+        <v>5030870</v>
+      </c>
+      <c r="M8" s="11">
         <v>20100175</v>
       </c>
-      <c r="M10" s="8">
+      <c r="N8" s="11">
         <v>2102896</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41">
-      <c r="F11" s="3">
-        <v>5030870</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="O8" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="F9" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1142212</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="K9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="7">
-        <v>5030870</v>
-      </c>
-      <c r="L11" s="8">
+      <c r="L9" s="5">
+        <v>5030870</v>
+      </c>
+      <c r="M9" s="11">
         <v>20133790</v>
       </c>
-      <c r="M11" s="8">
+      <c r="N9" s="11">
         <v>81325842</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41">
-      <c r="F12" s="3">
-        <v>5030870</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="O9" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="F10" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1101463</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="7">
-        <v>5030870</v>
-      </c>
-      <c r="L12" s="7">
+      <c r="L10" s="5">
+        <v>5030870</v>
+      </c>
+      <c r="M10" s="5">
         <v>20100167</v>
       </c>
-      <c r="M12" s="7">
+      <c r="N10" s="5">
         <v>2102897</v>
       </c>
-      <c r="N12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41">
-      <c r="F13" s="3">
-        <v>5030870</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="O10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="F11" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1101463</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="7">
-        <v>5030870</v>
-      </c>
-      <c r="L13" s="7">
+      <c r="L11" s="5">
+        <v>5030870</v>
+      </c>
+      <c r="M11" s="5">
         <v>20100175</v>
       </c>
-      <c r="M13" s="7">
+      <c r="N11" s="5">
         <v>2102896</v>
       </c>
-      <c r="N13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41">
-      <c r="F14" s="3">
-        <v>5030870</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="O11" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42">
+      <c r="F12" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1101463</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="7">
-        <v>5030870</v>
-      </c>
-      <c r="L14" s="7">
+      <c r="L12" s="5">
+        <v>5030870</v>
+      </c>
+      <c r="M12" s="5">
         <v>20133790</v>
       </c>
-      <c r="M14" s="7">
+      <c r="N12" s="5">
         <v>81325842</v>
       </c>
-      <c r="N14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41">
-      <c r="F15" s="3">
-        <v>5030870</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="O12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42">
+      <c r="F13" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1142226</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="7">
-        <v>5030870</v>
-      </c>
-      <c r="L15" s="7">
+      <c r="L13" s="5">
+        <v>5030870</v>
+      </c>
+      <c r="M13" s="5">
         <v>20100167</v>
       </c>
-      <c r="M15" s="7">
+      <c r="N13" s="5">
         <v>2102897</v>
       </c>
-      <c r="N15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41">
-      <c r="F16" s="3">
-        <v>5030870</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="O13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
+      <c r="F14" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1142226</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J14" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K16" s="7">
-        <v>5030870</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="L14" s="5">
+        <v>5030870</v>
+      </c>
+      <c r="M14" s="5">
         <v>20100175</v>
       </c>
-      <c r="M16" s="7">
+      <c r="N14" s="5">
         <v>2102896</v>
       </c>
-      <c r="N16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="6:14">
-      <c r="F17" s="3">
-        <v>5030870</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="O14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42">
+      <c r="F15" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1142226</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="7">
-        <v>5030870</v>
-      </c>
-      <c r="L17" s="7">
+      <c r="L15" s="5">
+        <v>5030870</v>
+      </c>
+      <c r="M15" s="5">
         <v>20133790</v>
       </c>
-      <c r="M17" s="7">
+      <c r="N15" s="5">
         <v>81325842</v>
       </c>
-      <c r="N17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="6:14">
-      <c r="F18" s="3">
-        <v>5030870</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="O15" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
+      <c r="F16" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1101460</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="J16" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K18" s="7">
-        <v>5030870</v>
-      </c>
-      <c r="L18" s="7">
+      <c r="L16" s="5">
+        <v>5030870</v>
+      </c>
+      <c r="M16" s="5">
         <v>20100167</v>
       </c>
-      <c r="M18" s="7">
+      <c r="N16" s="5">
         <v>2102897</v>
       </c>
-      <c r="N18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="6:14">
-      <c r="F19" s="3">
-        <v>5030870</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="O16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="6:15">
+      <c r="F17" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1101460</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="J17" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="7">
-        <v>5030870</v>
-      </c>
-      <c r="L19" s="7">
+      <c r="L17" s="5">
+        <v>5030870</v>
+      </c>
+      <c r="M17" s="5">
         <v>20100175</v>
       </c>
-      <c r="M19" s="7">
+      <c r="N17" s="5">
         <v>2102896</v>
       </c>
-      <c r="N19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="6:14">
-      <c r="F20" s="3">
-        <v>5030870</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="O17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="6:15">
+      <c r="F18" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1101460</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="J18" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="7">
-        <v>5030870</v>
-      </c>
-      <c r="L20" s="7">
+      <c r="L18" s="5">
+        <v>5030870</v>
+      </c>
+      <c r="M18" s="5">
         <v>20133790</v>
       </c>
-      <c r="M20" s="7">
+      <c r="N18" s="5">
         <v>81325842</v>
       </c>
-      <c r="N20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="6:14">
-      <c r="F21" s="3">
-        <v>5030870</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="O18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="6:15">
+      <c r="F19" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1496805</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="J19" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="7">
-        <v>5030870</v>
-      </c>
-      <c r="L21" s="7">
+      <c r="L19" s="5">
+        <v>5030870</v>
+      </c>
+      <c r="M19" s="5">
         <v>20100167</v>
       </c>
-      <c r="M21" s="7">
+      <c r="N19" s="5">
         <v>2102897</v>
       </c>
-      <c r="N21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="6:14">
-      <c r="F22" s="3">
-        <v>5030870</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="O19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="6:15">
+      <c r="F20" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1496805</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="J20" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="7">
-        <v>5030870</v>
-      </c>
-      <c r="L22" s="7">
+      <c r="L20" s="5">
+        <v>5030870</v>
+      </c>
+      <c r="M20" s="5">
         <v>20100175</v>
       </c>
-      <c r="M22" s="7">
+      <c r="N20" s="5">
         <v>2102896</v>
       </c>
-      <c r="N22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="6:14">
-      <c r="F23" s="3">
-        <v>5030870</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="O20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="6:15">
+      <c r="F21" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1496805</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="J21" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K23" s="7">
-        <v>5030870</v>
-      </c>
-      <c r="L23" s="7">
+      <c r="L21" s="5">
+        <v>5030870</v>
+      </c>
+      <c r="M21" s="5">
         <v>20133790</v>
       </c>
-      <c r="M23" s="7">
+      <c r="N21" s="5">
         <v>81325842</v>
       </c>
-      <c r="N23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="6:14">
-      <c r="F24" s="3">
-        <v>5030870</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="O21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="6:15">
+      <c r="F22" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1496806</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="J22" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="7">
-        <v>5030870</v>
-      </c>
-      <c r="L24" s="7">
+      <c r="L22" s="5">
+        <v>5030870</v>
+      </c>
+      <c r="M22" s="5">
         <v>20100167</v>
       </c>
-      <c r="M24" s="7">
+      <c r="N22" s="5">
         <v>2102897</v>
       </c>
-      <c r="N24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="6:14">
-      <c r="F25" s="3">
-        <v>5030870</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="O22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="6:15">
+      <c r="F23" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1496806</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="J23" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K25" s="7">
-        <v>5030870</v>
-      </c>
-      <c r="L25" s="7">
+      <c r="L23" s="5">
+        <v>5030870</v>
+      </c>
+      <c r="M23" s="5">
         <v>20100175</v>
       </c>
-      <c r="M25" s="7">
+      <c r="N23" s="5">
         <v>2102896</v>
       </c>
-      <c r="N25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="6:14">
-      <c r="F26" s="3">
-        <v>5030870</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="O23" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="6:15">
+      <c r="F24" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1496806</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="J24" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K26" s="7">
-        <v>5030870</v>
-      </c>
-      <c r="L26" s="7">
+      <c r="L24" s="5">
+        <v>5030870</v>
+      </c>
+      <c r="M24" s="5">
         <v>20133790</v>
       </c>
-      <c r="M26" s="7">
+      <c r="N24" s="5">
         <v>81325842</v>
       </c>
-      <c r="N26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="6:14">
-      <c r="F28" s="3">
+      <c r="O24" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="6:15">
+      <c r="F26" s="6">
         <v>5107936</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G26" s="1">
+        <v>1276339</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="J26" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K28" s="7">
+      <c r="L26" s="5">
         <v>5107936</v>
       </c>
-      <c r="L28">
+      <c r="M26" s="2">
         <v>20104448</v>
       </c>
-      <c r="M28">
+      <c r="N26" s="2">
         <v>6665576</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O26" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="6:14">
-      <c r="F29" s="3">
+    <row r="27" spans="6:15">
+      <c r="F27" s="6">
         <v>5107936</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G27" s="1">
+        <v>1276339</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="J27" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K29" s="7">
+      <c r="L27" s="5">
         <v>5107936</v>
       </c>
-      <c r="L29">
+      <c r="M27" s="2">
         <v>20104472</v>
       </c>
-      <c r="M29">
+      <c r="N27" s="2">
         <v>6665767</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O27" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="6:14">
-      <c r="F30" s="3">
+    <row r="28" spans="6:15">
+      <c r="F28" s="6">
         <v>5107936</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G28" s="1">
+        <v>1276339</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="J28" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K30" s="7">
+      <c r="L28" s="5">
         <v>5107936</v>
       </c>
-      <c r="L30">
+      <c r="M28" s="2">
         <v>20125054</v>
       </c>
-      <c r="M30">
+      <c r="N28" s="2">
         <v>47820939</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O28" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="6:14">
-      <c r="J31" s="4"/>
-      <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="6:14">
-      <c r="F32" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G32" s="4" t="s">
+    <row r="29" spans="6:15">
+      <c r="K29" s="7"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="6:15">
+      <c r="F30" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1277279</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="I30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="J30" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K32" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L32" s="7">
+      <c r="L30" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M30" s="5">
         <v>20102615</v>
       </c>
-      <c r="M32" s="7">
+      <c r="N30" s="5">
         <v>4888684</v>
       </c>
-      <c r="N32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="6:14">
-      <c r="F33" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="O30" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="6:15">
+      <c r="F31" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1277279</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="I31" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="J31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K33" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L33" s="7">
+      <c r="L31" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M31" s="5">
         <v>20102623</v>
       </c>
-      <c r="M33" s="7">
+      <c r="N31" s="5">
         <v>4888685</v>
       </c>
-      <c r="N33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="6:14">
-      <c r="F34" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="O31" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="6:15">
+      <c r="F32" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1277279</v>
+      </c>
+      <c r="H32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="I32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="J32" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L34" s="7">
+      <c r="L32" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M32" s="5">
         <v>20102631</v>
       </c>
-      <c r="M34" s="7">
+      <c r="N32" s="5">
         <v>4888686</v>
       </c>
-      <c r="N34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="6:14">
-      <c r="F35" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G35" s="4" t="s">
+      <c r="O32" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="6:15">
+      <c r="F33" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1277279</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="I33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="J33" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K35" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L35" s="7">
+      <c r="L33" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M33" s="5">
         <v>20102666</v>
       </c>
-      <c r="M35" s="7">
+      <c r="N33" s="5">
         <v>4888688</v>
       </c>
-      <c r="N35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="6:14">
-      <c r="F36" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G36" s="4" t="s">
+      <c r="O33" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="6:15">
+      <c r="F34" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1277279</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="I34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="J34" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K36" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L36" s="7">
+      <c r="L34" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M34" s="5">
         <v>20102674</v>
       </c>
-      <c r="M36" s="7">
+      <c r="N34" s="5">
         <v>4888689</v>
       </c>
-      <c r="N36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="6:14">
-      <c r="F37" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G37" s="4" t="s">
+      <c r="O34" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="6:15">
+      <c r="F35" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1277279</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="I35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="J35" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K37" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L37" s="7">
+      <c r="L35" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M35" s="5">
         <v>20102682</v>
       </c>
-      <c r="M37" s="7">
+      <c r="N35" s="5">
         <v>4888690</v>
       </c>
-      <c r="N37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="6:14">
-      <c r="F38" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G38" s="4" t="s">
+      <c r="O35" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="6:15">
+      <c r="F36" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1277279</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="I36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="J36" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K38" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L38" s="7">
+      <c r="L36" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M36" s="5">
         <v>20103239</v>
       </c>
-      <c r="M38" s="7">
+      <c r="N36" s="5">
         <v>5182163</v>
       </c>
-      <c r="N38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="6:14">
-      <c r="F39" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G39" s="4" t="s">
+      <c r="O36" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="6:15">
+      <c r="F37" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1277279</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="I37" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="J37" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K39" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L39" s="7">
+      <c r="L37" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M37" s="5">
         <v>20105134</v>
       </c>
-      <c r="M39" s="7">
+      <c r="N37" s="5">
         <v>7163074</v>
       </c>
-      <c r="N39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="6:14">
-      <c r="F40" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G40" s="4" t="s">
+      <c r="O37" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="6:15">
+      <c r="F38" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1277279</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="I38" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="J38" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K40" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L40" s="7">
+      <c r="L38" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M38" s="5">
         <v>20128738</v>
       </c>
-      <c r="M40" s="7">
+      <c r="N38" s="5">
         <v>56275427</v>
       </c>
-      <c r="N40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="6:14">
-      <c r="F41" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G41" s="4" t="s">
+      <c r="O38" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="6:15">
+      <c r="F39" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1480479</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="I39" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="J39" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K41" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L41" s="7">
+      <c r="L39" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M39" s="5">
         <v>20102615</v>
       </c>
-      <c r="M41" s="7">
+      <c r="N39" s="5">
         <v>4888684</v>
       </c>
-      <c r="N41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="6:14">
-      <c r="F42" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G42" s="4" t="s">
+      <c r="O39" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="6:15">
+      <c r="F40" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1480479</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="I40" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="J40" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K42" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L42" s="7">
+      <c r="L40" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M40" s="5">
         <v>20102623</v>
       </c>
-      <c r="M42" s="7">
+      <c r="N40" s="5">
         <v>4888685</v>
       </c>
-      <c r="N42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="6:14">
-      <c r="F43" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G43" s="4" t="s">
+      <c r="O40" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="6:15">
+      <c r="F41" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1480479</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="I41" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="J41" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K43" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L43" s="7">
+      <c r="L41" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M41" s="5">
         <v>20102631</v>
       </c>
-      <c r="M43" s="7">
+      <c r="N41" s="5">
         <v>4888686</v>
       </c>
-      <c r="N43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="6:14">
-      <c r="F44" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G44" s="4" t="s">
+      <c r="O41" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="6:15">
+      <c r="F42" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1480479</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="I42" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="J42" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K44" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L44" s="7">
+      <c r="L42" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M42" s="5">
         <v>20102666</v>
       </c>
-      <c r="M44" s="7">
+      <c r="N42" s="5">
         <v>4888688</v>
       </c>
-      <c r="N44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="6:14">
-      <c r="F45" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G45" s="4" t="s">
+      <c r="O42" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="6:15">
+      <c r="F43" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1480479</v>
+      </c>
+      <c r="H43" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="I43" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="J43" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K45" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L45" s="7">
+      <c r="L43" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M43" s="5">
         <v>20102674</v>
       </c>
-      <c r="M45" s="7">
+      <c r="N43" s="5">
         <v>4888689</v>
       </c>
-      <c r="N45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="6:14">
-      <c r="F46" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G46" s="4" t="s">
+      <c r="O43" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="6:15">
+      <c r="F44" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1480479</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="I44" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="J44" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K46" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L46" s="7">
+      <c r="L44" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M44" s="5">
         <v>20102682</v>
       </c>
-      <c r="M46" s="7">
+      <c r="N44" s="5">
         <v>4888690</v>
       </c>
-      <c r="N46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="6:14">
-      <c r="F47" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G47" s="4" t="s">
+      <c r="O44" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="6:15">
+      <c r="F45" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1480479</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="I45" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="J45" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K45" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K47" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L47" s="7">
+      <c r="L45" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M45" s="5">
         <v>20103239</v>
       </c>
-      <c r="M47" s="7">
+      <c r="N45" s="5">
         <v>5182163</v>
       </c>
-      <c r="N47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="6:14">
-      <c r="F48" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G48" s="4" t="s">
+      <c r="O45" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="6:15">
+      <c r="F46" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1480479</v>
+      </c>
+      <c r="H46" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="I46" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="J46" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K48" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L48" s="7">
+      <c r="L46" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M46" s="5">
         <v>20105134</v>
       </c>
-      <c r="M48" s="7">
+      <c r="N46" s="5">
         <v>7163074</v>
       </c>
-      <c r="N48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="6:14">
-      <c r="F49" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G49" s="4" t="s">
+      <c r="O46" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="6:15">
+      <c r="F47" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1480479</v>
+      </c>
+      <c r="H47" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="I47" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="J47" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K47" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K49" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L49" s="7">
+      <c r="L47" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M47" s="5">
         <v>20128738</v>
       </c>
-      <c r="M49" s="7">
+      <c r="N47" s="5">
         <v>56275427</v>
       </c>
-      <c r="N49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="6:14">
-      <c r="F50" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G50" s="4" t="s">
+      <c r="O47" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="6:15">
+      <c r="F48" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1324524</v>
+      </c>
+      <c r="H48" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="I48" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="J48" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K50" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L50" s="7">
+      <c r="L48" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M48" s="5">
         <v>20102615</v>
       </c>
-      <c r="M50" s="7">
+      <c r="N48" s="5">
         <v>4888684</v>
       </c>
-      <c r="N50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="6:14">
-      <c r="F51" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G51" s="4" t="s">
+      <c r="O48" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="6:15">
+      <c r="F49" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1324524</v>
+      </c>
+      <c r="H49" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="I49" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="J49" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K51" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L51" s="7">
+      <c r="L49" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M49" s="5">
         <v>20102623</v>
       </c>
-      <c r="M51" s="7">
+      <c r="N49" s="5">
         <v>4888685</v>
       </c>
-      <c r="N51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="6:14">
-      <c r="F52" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G52" s="4" t="s">
+      <c r="O49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="6:15">
+      <c r="F50" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1324524</v>
+      </c>
+      <c r="H50" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="I50" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="J50" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K50" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K52" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L52" s="7">
+      <c r="L50" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M50" s="5">
         <v>20102631</v>
       </c>
-      <c r="M52" s="7">
+      <c r="N50" s="5">
         <v>4888686</v>
       </c>
-      <c r="N52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="6:14">
-      <c r="F53" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G53" s="4" t="s">
+      <c r="O50" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="6:15">
+      <c r="F51" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1324524</v>
+      </c>
+      <c r="H51" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="I51" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="J51" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K51" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K53" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L53" s="7">
+      <c r="L51" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M51" s="5">
         <v>20102666</v>
       </c>
-      <c r="M53" s="7">
+      <c r="N51" s="5">
         <v>4888688</v>
       </c>
-      <c r="N53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="6:14">
-      <c r="F54" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G54" s="4" t="s">
+      <c r="O51" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="6:15">
+      <c r="F52" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1324524</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="I52" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="J52" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K52" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K54" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L54" s="7">
+      <c r="L52" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M52" s="5">
         <v>20102674</v>
       </c>
-      <c r="M54" s="7">
+      <c r="N52" s="5">
         <v>4888689</v>
       </c>
-      <c r="N54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="6:14">
-      <c r="F55" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G55" s="4" t="s">
+      <c r="O52" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="6:15">
+      <c r="F53" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1324524</v>
+      </c>
+      <c r="H53" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="I53" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="J53" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K55" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L55" s="7">
+      <c r="L53" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M53" s="5">
         <v>20102682</v>
       </c>
-      <c r="M55" s="7">
+      <c r="N53" s="5">
         <v>4888690</v>
       </c>
-      <c r="N55" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="6:14">
-      <c r="F56" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G56" s="4" t="s">
+      <c r="O53" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="6:15">
+      <c r="F54" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1324524</v>
+      </c>
+      <c r="H54" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="I54" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="J54" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K54" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K56" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L56" s="7">
+      <c r="L54" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M54" s="5">
         <v>20103239</v>
       </c>
-      <c r="M56" s="7">
+      <c r="N54" s="5">
         <v>5182163</v>
       </c>
-      <c r="N56" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="6:14">
-      <c r="F57" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G57" s="4" t="s">
+      <c r="O54" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="6:15">
+      <c r="F55" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1324524</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="I55" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I57" s="5" t="s">
+      <c r="J55" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K55" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K57" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L57" s="7">
+      <c r="L55" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M55" s="5">
         <v>20105134</v>
       </c>
-      <c r="M57" s="7">
+      <c r="N55" s="5">
         <v>7163074</v>
       </c>
-      <c r="N57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="6:14">
-      <c r="F58" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G58" s="4" t="s">
+      <c r="O55" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="6:15">
+      <c r="F56" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1324524</v>
+      </c>
+      <c r="H56" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="I56" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="J56" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K56" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K58" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L58" s="7">
+      <c r="L56" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M56" s="5">
         <v>20128738</v>
       </c>
-      <c r="M58" s="7">
+      <c r="N56" s="5">
         <v>56275427</v>
       </c>
-      <c r="N58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="6:14">
-      <c r="F59" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G59" s="4" t="s">
+      <c r="O56" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="6:15">
+      <c r="F57" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1260739</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="I57" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="J57" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K57" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K59" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L59" s="7">
+      <c r="L57" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M57" s="5">
         <v>20102615</v>
       </c>
-      <c r="M59" s="7">
+      <c r="N57" s="5">
         <v>4888684</v>
       </c>
-      <c r="N59" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="6:14">
-      <c r="F60" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G60" s="4" t="s">
+      <c r="O57" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="6:15">
+      <c r="F58" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1260739</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="I58" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="J58" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K58" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K60" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L60" s="7">
+      <c r="L58" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M58" s="5">
         <v>20102623</v>
       </c>
-      <c r="M60" s="7">
+      <c r="N58" s="5">
         <v>4888685</v>
       </c>
-      <c r="N60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="6:14">
-      <c r="F61" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G61" s="4" t="s">
+      <c r="O58" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="6:15">
+      <c r="F59" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1260739</v>
+      </c>
+      <c r="H59" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="I59" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I61" s="5" t="s">
+      <c r="J59" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K59" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K61" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L61" s="7">
+      <c r="L59" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M59" s="5">
         <v>20102631</v>
       </c>
-      <c r="M61" s="7">
+      <c r="N59" s="5">
         <v>4888686</v>
       </c>
-      <c r="N61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="6:14">
-      <c r="F62" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G62" s="4" t="s">
+      <c r="O59" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="6:15">
+      <c r="F60" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1260739</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="I60" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="J60" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K60" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K62" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L62" s="7">
+      <c r="L60" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M60" s="5">
         <v>20102666</v>
       </c>
-      <c r="M62" s="7">
+      <c r="N60" s="5">
         <v>4888688</v>
       </c>
-      <c r="N62" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="6:14">
-      <c r="F63" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G63" s="4" t="s">
+      <c r="O60" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="6:15">
+      <c r="F61" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1260739</v>
+      </c>
+      <c r="H61" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="I61" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="J61" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K61" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K63" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L63" s="7">
+      <c r="L61" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M61" s="5">
         <v>20102674</v>
       </c>
-      <c r="M63" s="7">
+      <c r="N61" s="5">
         <v>4888689</v>
       </c>
-      <c r="N63" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="6:14">
-      <c r="F64" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G64" s="4" t="s">
+      <c r="O61" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="6:15">
+      <c r="F62" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1260739</v>
+      </c>
+      <c r="H62" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="I62" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I64" s="5" t="s">
+      <c r="J62" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K62" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K64" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L64" s="7">
+      <c r="L62" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M62" s="5">
         <v>20102682</v>
       </c>
-      <c r="M64" s="7">
+      <c r="N62" s="5">
         <v>4888690</v>
       </c>
-      <c r="N64" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="6:14">
-      <c r="F65" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G65" s="4" t="s">
+      <c r="O62" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="6:15">
+      <c r="F63" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1260739</v>
+      </c>
+      <c r="H63" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="I63" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I65" s="5" t="s">
+      <c r="J63" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K63" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K65" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L65" s="7">
+      <c r="L63" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M63" s="5">
         <v>20103239</v>
       </c>
-      <c r="M65" s="7">
+      <c r="N63" s="5">
         <v>5182163</v>
       </c>
-      <c r="N65" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="6:14">
-      <c r="F66" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G66" s="4" t="s">
+      <c r="O63" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="6:15">
+      <c r="F64" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1260739</v>
+      </c>
+      <c r="H64" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="I64" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="J64" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K64" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K66" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L66" s="7">
+      <c r="L64" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M64" s="5">
         <v>20105134</v>
       </c>
-      <c r="M66" s="7">
+      <c r="N64" s="5">
         <v>7163074</v>
       </c>
-      <c r="N66" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="6:14">
-      <c r="F67" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G67" s="4" t="s">
+      <c r="O64" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="6:15">
+      <c r="F65" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1260739</v>
+      </c>
+      <c r="H65" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="I65" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="J65" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K65" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K67" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L67" s="7">
+      <c r="L65" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M65" s="5">
         <v>20128738</v>
       </c>
-      <c r="M67" s="7">
+      <c r="N65" s="5">
         <v>56275427</v>
       </c>
-      <c r="N67" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="6:14">
-      <c r="F68" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G68" s="4" t="s">
+      <c r="O65" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="6:15">
+      <c r="F66" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1259283</v>
+      </c>
+      <c r="H66" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="I66" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="J66" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K66" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K68" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L68" s="7">
+      <c r="L66" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M66" s="5">
         <v>20102615</v>
       </c>
-      <c r="M68" s="7">
+      <c r="N66" s="5">
         <v>4888684</v>
       </c>
-      <c r="N68" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="6:14">
-      <c r="F69" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G69" s="4" t="s">
+      <c r="O66" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="6:15">
+      <c r="F67" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1259283</v>
+      </c>
+      <c r="H67" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="I67" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="J67" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K67" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K69" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L69" s="7">
+      <c r="L67" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M67" s="5">
         <v>20102623</v>
       </c>
-      <c r="M69" s="7">
+      <c r="N67" s="5">
         <v>4888685</v>
       </c>
-      <c r="N69" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="6:14">
-      <c r="F70" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G70" s="4" t="s">
+      <c r="O67" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="6:15">
+      <c r="F68" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1259283</v>
+      </c>
+      <c r="H68" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="I68" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="J68" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K68" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K70" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L70" s="7">
+      <c r="L68" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M68" s="5">
         <v>20102631</v>
       </c>
-      <c r="M70" s="7">
+      <c r="N68" s="5">
         <v>4888686</v>
       </c>
-      <c r="N70" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="6:14">
-      <c r="F71" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G71" s="4" t="s">
+      <c r="O68" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="6:15">
+      <c r="F69" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1259283</v>
+      </c>
+      <c r="H69" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="I69" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="J69" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K69" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K71" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L71" s="7">
+      <c r="L69" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M69" s="5">
         <v>20102666</v>
       </c>
-      <c r="M71" s="7">
+      <c r="N69" s="5">
         <v>4888688</v>
       </c>
-      <c r="N71" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="6:14">
-      <c r="F72" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G72" s="4" t="s">
+      <c r="O69" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="6:15">
+      <c r="F70" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1259283</v>
+      </c>
+      <c r="H70" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="I70" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="J70" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K70" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K72" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L72" s="7">
+      <c r="L70" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M70" s="5">
         <v>20102674</v>
       </c>
-      <c r="M72" s="7">
+      <c r="N70" s="5">
         <v>4888689</v>
       </c>
-      <c r="N72" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="6:14">
-      <c r="F73" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G73" s="4" t="s">
+      <c r="O70" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="6:15">
+      <c r="F71" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1259283</v>
+      </c>
+      <c r="H71" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="I71" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="J71" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K71" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K73" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L73" s="7">
+      <c r="L71" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M71" s="5">
         <v>20102682</v>
       </c>
-      <c r="M73" s="7">
+      <c r="N71" s="5">
         <v>4888690</v>
       </c>
-      <c r="N73" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="6:14">
-      <c r="F74" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G74" s="4" t="s">
+      <c r="O71" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="6:15">
+      <c r="F72" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1259283</v>
+      </c>
+      <c r="H72" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="I72" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I74" s="5" t="s">
+      <c r="J72" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K72" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K74" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L74" s="7">
+      <c r="L72" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M72" s="5">
         <v>20103239</v>
       </c>
-      <c r="M74" s="7">
+      <c r="N72" s="5">
         <v>5182163</v>
       </c>
-      <c r="N74" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" spans="6:14">
-      <c r="F75" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G75" s="4" t="s">
+      <c r="O72" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="6:15">
+      <c r="F73" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1259283</v>
+      </c>
+      <c r="H73" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="I73" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I75" s="5" t="s">
+      <c r="J73" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K73" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K75" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L75" s="7">
+      <c r="L73" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M73" s="5">
         <v>20105134</v>
       </c>
-      <c r="M75" s="7">
+      <c r="N73" s="5">
         <v>7163074</v>
       </c>
-      <c r="N75" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" spans="6:14">
-      <c r="F76" s="3">
-        <v>5100876</v>
-      </c>
-      <c r="G76" s="4" t="s">
+      <c r="O73" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="6:15">
+      <c r="F74" s="6">
+        <v>5100876</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1259283</v>
+      </c>
+      <c r="H74" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="I74" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I76" s="5" t="s">
+      <c r="J74" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K74" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K76" s="7">
-        <v>5100876</v>
-      </c>
-      <c r="L76" s="7">
+      <c r="L74" s="5">
+        <v>5100876</v>
+      </c>
+      <c r="M74" s="5">
         <v>20128738</v>
       </c>
-      <c r="M76" s="7">
+      <c r="N74" s="5">
         <v>56275427</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O74" s="2" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M28:M30 L1:L27 L31:L1048576">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+  <conditionalFormatting sqref="N26:N28 M29:M1048576 M1:M25">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>20105134</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>20103239</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>20102682</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>20102674</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>20102666</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>20102631</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>20102623</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>20102615</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>20133790</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>20100175</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>20100167</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+  <conditionalFormatting sqref="M5">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>20100175</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3430,4 +3891,1498 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="5"/>
+    <col min="6" max="6" width="47.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.5" style="2" customWidth="1"/>
+    <col min="15" max="19" width="8.5" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="2"/>
+    <col min="21" max="21" width="13" style="2" customWidth="1"/>
+    <col min="22" max="25" width="10.83203125" style="2"/>
+    <col min="26" max="31" width="13" style="2" customWidth="1"/>
+    <col min="32" max="32" width="14.5" style="2" customWidth="1"/>
+    <col min="33" max="33" width="10.83203125" style="2"/>
+    <col min="34" max="41" width="13" style="2" customWidth="1"/>
+    <col min="42" max="45" width="10.83203125" style="2"/>
+    <col min="46" max="49" width="13" style="2" customWidth="1"/>
+    <col min="50" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45">
+      <c r="A1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="A2" s="6">
+        <v>5167510</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1472708</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="2">
+        <v>20127596</v>
+      </c>
+      <c r="E2" s="2">
+        <v>53597706</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2">
+        <v>200</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="2">
+        <v>500</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="AF2" s="4">
+        <v>5167510</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>1472708</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="A3" s="6">
+        <v>5167510</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1473036</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="5">
+        <v>20127596</v>
+      </c>
+      <c r="E3" s="5">
+        <v>53597706</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2">
+        <v>200</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I3" s="2">
+        <v>500</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
+      <c r="A4" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1100798</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2">
+        <v>200</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>500</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
+      <c r="A5" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1100798</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="2">
+        <v>200</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>500</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
+      <c r="A6" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1100798</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E6" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="2">
+        <v>200</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>500</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
+      <c r="A7" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1142212</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="11">
+        <v>20100167</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2102897</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="2">
+        <v>200</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>500</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
+      <c r="A8" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1142212</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="11">
+        <v>20100175</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2102896</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="2">
+        <v>200</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>500</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45">
+      <c r="A9" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1142212</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="11">
+        <v>20133790</v>
+      </c>
+      <c r="E9" s="11">
+        <v>81325842</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2">
+        <v>200</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>500</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
+      <c r="A10" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1101463</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="2">
+        <v>200</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>500</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
+      <c r="A11" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1101463</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="2">
+        <v>200</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>500</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
+      <c r="A12" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1101463</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E12" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="2">
+        <v>200</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I12" s="2">
+        <v>500</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45">
+      <c r="A13" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1142226</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="2">
+        <v>200</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I13" s="2">
+        <v>500</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
+      <c r="A14" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1142226</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="2">
+        <v>200</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I14" s="2">
+        <v>500</v>
+      </c>
+      <c r="J14" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45">
+      <c r="A15" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1142226</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E15" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="2">
+        <v>200</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I15" s="2">
+        <v>500</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45">
+      <c r="A16" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1101460</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="2">
+        <v>200</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>500</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1101460</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="2">
+        <v>200</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I17" s="2">
+        <v>500</v>
+      </c>
+      <c r="J17" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1101460</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E18" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="2">
+        <v>200</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>500</v>
+      </c>
+      <c r="J18" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1496805</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="2">
+        <v>200</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I19" s="2">
+        <v>500</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1496805</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="2">
+        <v>200</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="2">
+        <v>500</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1496805</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E21" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="2">
+        <v>200</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I21" s="2">
+        <v>500</v>
+      </c>
+      <c r="J21" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1496806</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="2">
+        <v>200</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I22" s="2">
+        <v>500</v>
+      </c>
+      <c r="J22" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U22" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1496806</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="2">
+        <v>200</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="2">
+        <v>500</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1496806</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E24" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="2">
+        <v>200</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I24" s="2">
+        <v>500</v>
+      </c>
+      <c r="J24" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U24" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="6">
+        <v>5107936</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1276339</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="2">
+        <v>20104448</v>
+      </c>
+      <c r="E25" s="2">
+        <v>6665576</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="2">
+        <v>200</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I25" s="2">
+        <v>500</v>
+      </c>
+      <c r="J25" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U25" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="6">
+        <v>5107936</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1276339</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="2">
+        <v>20104472</v>
+      </c>
+      <c r="E26" s="2">
+        <v>6665767</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="2">
+        <v>200</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I26" s="2">
+        <v>500</v>
+      </c>
+      <c r="J26" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U26" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="6">
+        <v>5107936</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1276339</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="2">
+        <v>20125054</v>
+      </c>
+      <c r="E27" s="2">
+        <v>47820939</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="2">
+        <v>200</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I27" s="2">
+        <v>500</v>
+      </c>
+      <c r="J27" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U27" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="3">
+        <f>SUMPRODUCT(1/COUNTIF(A2:A27,A2:A27))</f>
+        <v>3.0000000000000013</v>
+      </c>
+      <c r="B29" s="3">
+        <f>SUMPRODUCT(1/COUNTIF(B2:B27,B2:B27))</f>
+        <v>10</v>
+      </c>
+      <c r="C29" s="3">
+        <f>SUMPRODUCT(1/COUNTIF(C2:C27,C2:C27))</f>
+        <v>10</v>
+      </c>
+      <c r="D29" s="3">
+        <f>SUMPRODUCT(1/COUNTIF(D2:D27,D2:D27))</f>
+        <v>6.9999999999999982</v>
+      </c>
+      <c r="E29" s="3">
+        <f>SUMPRODUCT(1/COUNTIF(E2:E27,E2:E27))</f>
+        <v>6.9999999999999982</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="B31" s="14"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E25:E27">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>20105134</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>20103239</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>20102682</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>20102674</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>20102666</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>20102631</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>20102623</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+      <formula>20102615</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+      <formula>20133790</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+      <formula>20100175</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+      <formula>20100167</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/svbWebPaymentUsers/MarkFinalQA.xlsx
+++ b/svbWebPaymentUsers/MarkFinalQA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="63420" yWindow="640" windowWidth="30840" windowHeight="15060" tabRatio="201" firstSheet="1" activeTab="2"/>
+    <workbookView minimized="1" xWindow="2820" yWindow="1160" windowWidth="17960" windowHeight="15860" tabRatio="201" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mark QA" sheetId="1" r:id="rId1"/>
@@ -403,8 +403,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="181">
+  <cellStyleXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -625,7 +627,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="181">
+  <cellStyles count="183">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -716,6 +718,7 @@
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -806,6 +809,7 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
@@ -3898,7 +3902,7 @@
   <dimension ref="A1:AS31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3915,7 +3919,7 @@
     <col min="10" max="10" width="6.6640625" style="2" customWidth="1"/>
     <col min="11" max="11" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.5" style="2" customWidth="1"/>
     <col min="14" max="14" width="18.5" style="2" customWidth="1"/>
     <col min="15" max="19" width="8.5" style="2" customWidth="1"/>
     <col min="20" max="20" width="10.83203125" style="2"/>

--- a/svbWebPaymentUsers/MarkFinalQA.xlsx
+++ b/svbWebPaymentUsers/MarkFinalQA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2820" yWindow="1160" windowWidth="17960" windowHeight="15860" tabRatio="201" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="520" yWindow="420" windowWidth="28280" windowHeight="15860" tabRatio="201" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mark QA" sheetId="1" r:id="rId1"/>
@@ -302,9 +302,6 @@
     <t>Susan,6508679351</t>
   </si>
   <si>
-    <t>Liam,7710854675</t>
-  </si>
-  <si>
     <t>Mark,7079532210</t>
   </si>
   <si>
@@ -327,6 +324,9 @@
   </si>
   <si>
     <t>accountId</t>
+  </si>
+  <si>
+    <t>Dummy,7075551212</t>
   </si>
 </sst>
 </file>
@@ -403,8 +403,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="183">
+  <cellStyleXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -627,7 +631,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="183">
+  <cellStyles count="187">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -719,6 +723,8 @@
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -810,6 +816,8 @@
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
@@ -3902,7 +3910,7 @@
   <dimension ref="A1:AS31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3912,10 +3920,10 @@
     <col min="3" max="3" width="14.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="17" style="5" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="5"/>
-    <col min="6" max="6" width="47.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="39.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="6.6640625" style="2" customWidth="1"/>
     <col min="11" max="11" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -3936,19 +3944,19 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>83</v>
@@ -3986,7 +3994,7 @@
         <v>1472708</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2">
         <v>20127596</v>
@@ -4019,7 +4027,7 @@
         <v>94</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>32</v>
@@ -4090,7 +4098,7 @@
         <v>94</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>32</v>
@@ -4140,7 +4148,7 @@
         <v>94</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>32</v>
@@ -4190,7 +4198,7 @@
         <v>94</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>32</v>
@@ -4240,7 +4248,7 @@
         <v>94</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>32</v>
@@ -4290,7 +4298,7 @@
         <v>94</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -4345,7 +4353,7 @@
         <v>94</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -4400,7 +4408,7 @@
         <v>94</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -4455,7 +4463,7 @@
         <v>94</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>32</v>
@@ -4505,7 +4513,7 @@
         <v>94</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>32</v>
@@ -4555,7 +4563,7 @@
         <v>94</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>32</v>
@@ -4605,7 +4613,7 @@
         <v>94</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>32</v>
@@ -4655,7 +4663,7 @@
         <v>94</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>32</v>
@@ -4705,7 +4713,7 @@
         <v>94</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>32</v>
@@ -4755,7 +4763,7 @@
         <v>94</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>32</v>
@@ -4805,7 +4813,7 @@
         <v>94</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>32</v>
@@ -4852,10 +4860,10 @@
         <v>93</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>32</v>
@@ -4905,7 +4913,7 @@
         <v>94</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>32</v>
@@ -4955,7 +4963,7 @@
         <v>94</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>32</v>
@@ -5005,7 +5013,7 @@
         <v>94</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>32</v>
@@ -5055,7 +5063,7 @@
         <v>94</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T22" s="2" t="s">
         <v>32</v>
@@ -5105,7 +5113,7 @@
         <v>94</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T23" s="2" t="s">
         <v>32</v>
@@ -5155,7 +5163,7 @@
         <v>94</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T24" s="2" t="s">
         <v>32</v>
@@ -5205,7 +5213,7 @@
         <v>94</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T25" s="2" t="s">
         <v>32</v>
@@ -5255,7 +5263,7 @@
         <v>94</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T26" s="2" t="s">
         <v>32</v>
@@ -5305,7 +5313,7 @@
         <v>94</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T27" s="2" t="s">
         <v>32</v>

--- a/svbWebPaymentUsers/MarkFinalQA.xlsx
+++ b/svbWebPaymentUsers/MarkFinalQA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="420" windowWidth="28280" windowHeight="15860" tabRatio="201" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="820" yWindow="1420" windowWidth="20460" windowHeight="15860" tabRatio="201" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mark QA" sheetId="1" r:id="rId1"/>
@@ -333,7 +333,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -362,6 +362,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -592,7 +606,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -630,6 +644,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="187">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3910,14 +3926,14 @@
   <dimension ref="A1:AS31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
     <col min="2" max="2" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="17" style="5" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="5"/>
     <col min="6" max="6" width="39.5" style="2" customWidth="1"/>
@@ -3986,14 +4002,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" ht="20">
       <c r="A2" s="6">
         <v>5167510</v>
       </c>
       <c r="B2" s="3">
         <v>1472708</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="15" t="s">
         <v>96</v>
       </c>
       <c r="D2" s="2">
@@ -4057,14 +4073,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:45" ht="20">
       <c r="A3" s="6">
         <v>5167510</v>
       </c>
       <c r="B3" s="3">
         <v>1473036</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="5">
@@ -4107,14 +4123,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:45" ht="20">
       <c r="A4" s="6">
         <v>5030870</v>
       </c>
       <c r="B4" s="13">
         <v>1100798</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="5">
@@ -4157,14 +4173,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:45" ht="20">
       <c r="A5" s="6">
         <v>5030870</v>
       </c>
       <c r="B5" s="13">
         <v>1100798</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D5" s="5">
@@ -4207,14 +4223,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:45" ht="20">
       <c r="A6" s="6">
         <v>5030870</v>
       </c>
       <c r="B6" s="13">
         <v>1100798</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D6" s="5">
@@ -4257,14 +4273,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:45" ht="20">
       <c r="A7" s="6">
         <v>5030870</v>
       </c>
       <c r="B7" s="3">
         <v>1142212</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="11">
@@ -4312,14 +4328,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:45" ht="20">
       <c r="A8" s="6">
         <v>5030870</v>
       </c>
       <c r="B8" s="3">
         <v>1142212</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="11">
@@ -4367,14 +4383,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:45" ht="20">
       <c r="A9" s="6">
         <v>5030870</v>
       </c>
       <c r="B9" s="3">
         <v>1142212</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="11">
@@ -4422,14 +4438,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:45" ht="20">
       <c r="A10" s="6">
         <v>5030870</v>
       </c>
       <c r="B10" s="3">
         <v>1101463</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="5">
@@ -4472,14 +4488,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:45" ht="20">
       <c r="A11" s="6">
         <v>5030870</v>
       </c>
       <c r="B11" s="3">
         <v>1101463</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D11" s="5">
@@ -4522,14 +4538,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:45" ht="20">
       <c r="A12" s="6">
         <v>5030870</v>
       </c>
       <c r="B12" s="3">
         <v>1101463</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="5">
@@ -4572,14 +4588,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:45" ht="20">
       <c r="A13" s="6">
         <v>5030870</v>
       </c>
       <c r="B13" s="3">
         <v>1142226</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="5">
@@ -4622,14 +4638,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:45" ht="20">
       <c r="A14" s="6">
         <v>5030870</v>
       </c>
       <c r="B14" s="3">
         <v>1142226</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="5">
@@ -4672,14 +4688,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:45" ht="20">
       <c r="A15" s="6">
         <v>5030870</v>
       </c>
       <c r="B15" s="3">
         <v>1142226</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="5">
@@ -4722,14 +4738,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:45" ht="20">
       <c r="A16" s="6">
         <v>5030870</v>
       </c>
       <c r="B16" s="3">
         <v>1101460</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="15" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="5">
@@ -4772,14 +4788,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" ht="20">
       <c r="A17" s="6">
         <v>5030870</v>
       </c>
       <c r="B17" s="3">
         <v>1101460</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="15" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="5">
@@ -4822,14 +4838,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" ht="20">
       <c r="A18" s="6">
         <v>5030870</v>
       </c>
       <c r="B18" s="3">
         <v>1101460</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="15" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="5">
@@ -4872,14 +4888,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" ht="20">
       <c r="A19" s="6">
         <v>5030870</v>
       </c>
       <c r="B19" s="3">
         <v>1496805</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D19" s="5">
@@ -4922,14 +4938,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" ht="20">
       <c r="A20" s="6">
         <v>5030870</v>
       </c>
       <c r="B20" s="3">
         <v>1496805</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="5">
@@ -4972,14 +4988,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" ht="20">
       <c r="A21" s="6">
         <v>5030870</v>
       </c>
       <c r="B21" s="3">
         <v>1496805</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="5">
@@ -5022,14 +5038,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" ht="20">
       <c r="A22" s="6">
         <v>5030870</v>
       </c>
       <c r="B22" s="3">
         <v>1496806</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="15" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="5">
@@ -5072,14 +5088,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" ht="20">
       <c r="A23" s="6">
         <v>5030870</v>
       </c>
       <c r="B23" s="3">
         <v>1496806</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="15" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="5">
@@ -5122,14 +5138,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" ht="20">
       <c r="A24" s="6">
         <v>5030870</v>
       </c>
       <c r="B24" s="3">
         <v>1496806</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="15" t="s">
         <v>59</v>
       </c>
       <c r="D24" s="5">
@@ -5172,14 +5188,14 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" ht="20">
       <c r="A25" s="6">
         <v>5107936</v>
       </c>
       <c r="B25" s="3">
         <v>1276339</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="2">
@@ -5222,14 +5238,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" ht="20">
       <c r="A26" s="6">
         <v>5107936</v>
       </c>
       <c r="B26" s="3">
         <v>1276339</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="2">
@@ -5272,14 +5288,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" ht="20">
       <c r="A27" s="6">
         <v>5107936</v>
       </c>
       <c r="B27" s="3">
         <v>1276339</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="2">

--- a/svbWebPaymentUsers/MarkFinalQA.xlsx
+++ b/svbWebPaymentUsers/MarkFinalQA.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="1420" windowWidth="20460" windowHeight="15860" tabRatio="201" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="4420" yWindow="1180" windowWidth="20460" windowHeight="17600" tabRatio="332" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mark QA" sheetId="1" r:id="rId1"/>
     <sheet name="master" sheetId="2" r:id="rId2"/>
     <sheet name="ReArranged" sheetId="3" r:id="rId3"/>
+    <sheet name="AcctNumSort" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="103">
   <si>
     <t>a</t>
   </si>
@@ -327,13 +329,16 @@
   </si>
   <si>
     <t>Dummy,7075551212</t>
+  </si>
+  <si>
+    <t>almadavey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -378,6 +383,11 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Opensanssemibold"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -417,7 +427,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="187">
+  <cellStyleXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -605,8 +615,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,8 +672,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="187">
+  <cellStyles count="203">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -741,6 +768,14 @@
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -834,9 +869,371 @@
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF3366FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF000090"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9411A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD81C20"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF11E634"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF3366FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF000090"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9411A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD81C20"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF11E634"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF3366FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF000090"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9411A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD81C20"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF11E634"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3872,42 +4269,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N26:N28 M29:M1048576 M1:M25">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>20105134</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>20103239</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
       <formula>20102682</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
       <formula>20102674</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="5" operator="equal">
       <formula>20102666</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="6" operator="equal">
       <formula>20102631</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="7" operator="equal">
       <formula>20102623</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="9" operator="equal">
       <formula>20102615</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="12" operator="equal">
       <formula>20133790</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="13" operator="equal">
       <formula>20100175</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="16" operator="equal">
       <formula>20100167</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="15" operator="equal">
       <formula>20100175</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3923,10 +4320,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS31"/>
+  <dimension ref="A1:AS32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5369,39 +5766,44 @@
     <row r="31" spans="1:21">
       <c r="B31" s="14"/>
     </row>
+    <row r="32" spans="1:21" ht="16">
+      <c r="F32" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E25:E27">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>20105134</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
       <formula>20103239</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
       <formula>20102682</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
       <formula>20102674</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
       <formula>20102666</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
       <formula>20102631</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
       <formula>20102623</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
       <formula>20102615</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
       <formula>20133790</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
       <formula>20100175</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
       <formula>20100167</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5413,4 +5815,2944 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="5"/>
+    <col min="6" max="6" width="39.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.5" style="2" customWidth="1"/>
+    <col min="15" max="19" width="8.5" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="2"/>
+    <col min="21" max="21" width="13" style="2" customWidth="1"/>
+    <col min="22" max="25" width="10.83203125" style="2"/>
+    <col min="26" max="31" width="13" style="2" customWidth="1"/>
+    <col min="32" max="32" width="14.5" style="2" customWidth="1"/>
+    <col min="33" max="33" width="10.83203125" style="2"/>
+    <col min="34" max="41" width="13" style="2" customWidth="1"/>
+    <col min="42" max="45" width="10.83203125" style="2"/>
+    <col min="46" max="49" width="13" style="2" customWidth="1"/>
+    <col min="50" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="20" customHeight="1">
+      <c r="A2" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1100798</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2">
+        <v>200</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="2">
+        <v>500</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="20">
+      <c r="A3" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1142212</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="11">
+        <v>20100167</v>
+      </c>
+      <c r="E3" s="11">
+        <v>2102897</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2">
+        <v>200</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I3" s="2">
+        <v>500</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="20">
+      <c r="A4" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1101463</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2">
+        <v>200</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>500</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="20">
+      <c r="A5" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1142226</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="2">
+        <v>200</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>500</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="20">
+      <c r="A6" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1101460</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="2">
+        <v>200</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>500</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="20">
+      <c r="A7" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1496805</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="2">
+        <v>200</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>500</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="20">
+      <c r="A8" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1496806</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="2">
+        <v>200</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>500</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="20">
+      <c r="A9" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1100798</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2">
+        <v>200</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>500</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="20">
+      <c r="A10" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1142212</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="11">
+        <v>20100175</v>
+      </c>
+      <c r="E10" s="11">
+        <v>2102896</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="2">
+        <v>200</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>500</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="20">
+      <c r="A11" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1101463</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="2">
+        <v>200</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>500</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="20">
+      <c r="A12" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1142226</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="2">
+        <v>200</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I12" s="2">
+        <v>500</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="20">
+      <c r="A13" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1101460</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="2">
+        <v>200</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I13" s="2">
+        <v>500</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="20">
+      <c r="A14" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1496805</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="2">
+        <v>200</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I14" s="2">
+        <v>500</v>
+      </c>
+      <c r="J14" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="20">
+      <c r="A15" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1496806</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="2">
+        <v>200</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I15" s="2">
+        <v>500</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="20">
+      <c r="A16" s="6">
+        <v>5107936</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1276339</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2">
+        <v>20104448</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6665576</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="2">
+        <v>200</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>500</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" ht="20">
+      <c r="A17" s="6">
+        <v>5107936</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1276339</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2">
+        <v>20104472</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6665767</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="2">
+        <v>200</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I17" s="2">
+        <v>500</v>
+      </c>
+      <c r="J17" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" ht="20">
+      <c r="A18" s="6">
+        <v>5107936</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1276339</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="2">
+        <v>20125054</v>
+      </c>
+      <c r="E18" s="2">
+        <v>47820939</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="2">
+        <v>200</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>500</v>
+      </c>
+      <c r="J18" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" ht="20">
+      <c r="A19" s="6">
+        <v>5167510</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1472708</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="2">
+        <v>20127596</v>
+      </c>
+      <c r="E19" s="2">
+        <v>53597706</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="2">
+        <v>200</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I19" s="2">
+        <v>500</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="AF19" s="4">
+        <v>5167510</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>1472708</v>
+      </c>
+      <c r="AP19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" ht="20">
+      <c r="A20" s="6">
+        <v>5167510</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1473036</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="5">
+        <v>20127596</v>
+      </c>
+      <c r="E20" s="5">
+        <v>53597706</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="2">
+        <v>200</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="2">
+        <v>500</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" ht="20">
+      <c r="A21" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B21" s="13">
+        <v>1100798</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E21" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="2">
+        <v>200</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I21" s="2">
+        <v>500</v>
+      </c>
+      <c r="J21" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" ht="20">
+      <c r="A22" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1142212</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="11">
+        <v>20133790</v>
+      </c>
+      <c r="E22" s="11">
+        <v>81325842</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="2">
+        <v>200</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I22" s="2">
+        <v>500</v>
+      </c>
+      <c r="J22" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U22" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" ht="20">
+      <c r="A23" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1101463</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E23" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="2">
+        <v>200</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="2">
+        <v>500</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" ht="20">
+      <c r="A24" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1142226</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E24" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="2">
+        <v>200</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I24" s="2">
+        <v>500</v>
+      </c>
+      <c r="J24" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U24" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" ht="20">
+      <c r="A25" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1101460</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E25" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="2">
+        <v>200</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I25" s="2">
+        <v>500</v>
+      </c>
+      <c r="J25" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U25" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" ht="20">
+      <c r="A26" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1496805</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E26" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="2">
+        <v>200</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I26" s="2">
+        <v>500</v>
+      </c>
+      <c r="J26" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U26" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" ht="20">
+      <c r="A27" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1496806</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E27" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="2">
+        <v>200</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I27" s="2">
+        <v>500</v>
+      </c>
+      <c r="J27" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U27" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45">
+      <c r="A29" s="3">
+        <f>SUMPRODUCT(1/COUNTIF(A2:A27,A2:A27))</f>
+        <v>2.9999999999999987</v>
+      </c>
+      <c r="B29" s="3">
+        <f>SUMPRODUCT(1/COUNTIF(B2:B27,B2:B27))</f>
+        <v>10.000000000000002</v>
+      </c>
+      <c r="C29" s="3">
+        <f>SUMPRODUCT(1/COUNTIF(C2:C27,C2:C27))</f>
+        <v>10.000000000000002</v>
+      </c>
+      <c r="D29" s="3">
+        <f>SUMPRODUCT(1/COUNTIF(D2:D27,D2:D27))</f>
+        <v>7.0000000000000018</v>
+      </c>
+      <c r="E29" s="3">
+        <f>SUMPRODUCT(1/COUNTIF(E2:E27,E2:E27))</f>
+        <v>7.0000000000000018</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="31" spans="1:45">
+      <c r="B31" s="14"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:AW27">
+    <sortCondition ref="D2:D27"/>
+  </sortState>
+  <conditionalFormatting sqref="E25:E27">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+      <formula>20105134</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+      <formula>20103239</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+      <formula>20102682</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+      <formula>20102674</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+      <formula>20102666</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+      <formula>20102631</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
+      <formula>20102623</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+      <formula>20102615</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+      <formula>20133790</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+      <formula>20100175</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+      <formula>20100167</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A2" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1496806</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2">
+        <v>200</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="2">
+        <v>500</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="AF2" s="4">
+        <v>5167510</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>1472708</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A3" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1496806</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2">
+        <v>200</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I3" s="2">
+        <v>500</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A4" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1496806</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E4" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2">
+        <v>200</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>500</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A5" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1142212</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="11">
+        <v>20100167</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2102897</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="2">
+        <v>200</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>500</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A6" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1142212</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="11">
+        <v>20100175</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2102896</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="2">
+        <v>200</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>500</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A7" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1142212</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="11">
+        <v>20133790</v>
+      </c>
+      <c r="E7" s="11">
+        <v>81325842</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="2">
+        <v>200</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>500</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A8" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1496805</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="2">
+        <v>200</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>500</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A9" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1496805</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2">
+        <v>200</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>500</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A10" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1496805</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E10" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="2">
+        <v>200</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>500</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A11" s="6">
+        <v>5167510</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1472708</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="2">
+        <v>20127596</v>
+      </c>
+      <c r="E11" s="2">
+        <v>53597706</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="2">
+        <v>200</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>500</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A12" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1101463</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="2">
+        <v>200</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I12" s="2">
+        <v>500</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A13" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1101463</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="2">
+        <v>200</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I13" s="2">
+        <v>500</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A14" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1101463</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E14" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="2">
+        <v>200</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I14" s="2">
+        <v>500</v>
+      </c>
+      <c r="J14" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A15" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1142226</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="2">
+        <v>200</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I15" s="2">
+        <v>500</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A16" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1142226</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="2">
+        <v>200</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>500</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="2" customFormat="1" ht="20">
+      <c r="A17" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1142226</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E17" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="2">
+        <v>200</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I17" s="2">
+        <v>500</v>
+      </c>
+      <c r="J17" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="2" customFormat="1" ht="20">
+      <c r="A18" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B18" s="13">
+        <v>1100798</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="2">
+        <v>200</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>500</v>
+      </c>
+      <c r="J18" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="2" customFormat="1" ht="20">
+      <c r="A19" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B19" s="13">
+        <v>1100798</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="2">
+        <v>200</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I19" s="2">
+        <v>500</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="2" customFormat="1" ht="20">
+      <c r="A20" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B20" s="13">
+        <v>1100798</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E20" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="2">
+        <v>200</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="2">
+        <v>500</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="2" customFormat="1" ht="20">
+      <c r="A21" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1101460</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="2">
+        <v>200</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I21" s="2">
+        <v>500</v>
+      </c>
+      <c r="J21" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="2" customFormat="1" ht="20">
+      <c r="A22" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1101460</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="2">
+        <v>200</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I22" s="2">
+        <v>500</v>
+      </c>
+      <c r="J22" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U22" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="2" customFormat="1" ht="20">
+      <c r="A23" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1101460</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E23" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="2">
+        <v>200</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="2">
+        <v>500</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="2" customFormat="1" ht="20">
+      <c r="A24" s="6">
+        <v>5167510</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1473036</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="5">
+        <v>20127596</v>
+      </c>
+      <c r="E24" s="5">
+        <v>53597706</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="2">
+        <v>200</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I24" s="2">
+        <v>500</v>
+      </c>
+      <c r="J24" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U24" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="2" customFormat="1" ht="20">
+      <c r="A25" s="6">
+        <v>5107936</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1276339</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="2">
+        <v>20104448</v>
+      </c>
+      <c r="E25" s="2">
+        <v>6665576</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="2">
+        <v>200</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I25" s="2">
+        <v>500</v>
+      </c>
+      <c r="J25" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U25" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" s="2" customFormat="1" ht="20">
+      <c r="A26" s="6">
+        <v>5107936</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1276339</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="2">
+        <v>20104472</v>
+      </c>
+      <c r="E26" s="2">
+        <v>6665767</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="2">
+        <v>200</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I26" s="2">
+        <v>500</v>
+      </c>
+      <c r="J26" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U26" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="2" customFormat="1" ht="20">
+      <c r="A27" s="6">
+        <v>5107936</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1276339</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="2">
+        <v>20125054</v>
+      </c>
+      <c r="E27" s="2">
+        <v>47820939</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="2">
+        <v>200</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I27" s="2">
+        <v>500</v>
+      </c>
+      <c r="J27" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U27" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:N27">
+    <sortCondition ref="C2:C27"/>
+    <sortCondition ref="D2:D27"/>
+  </sortState>
+  <conditionalFormatting sqref="E25:E27">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+      <formula>20105134</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+      <formula>20103239</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+      <formula>20102682</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+      <formula>20102674</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+      <formula>20102666</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+      <formula>20102631</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>20102623</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+      <formula>20102615</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+      <formula>20133790</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+      <formula>20100175</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>20100167</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/svbWebPaymentUsers/MarkFinalQA.xlsx
+++ b/svbWebPaymentUsers/MarkFinalQA.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="1180" windowWidth="20460" windowHeight="17600" tabRatio="332" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="3320" yWindow="20" windowWidth="20460" windowHeight="17600" tabRatio="332" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Mark QA" sheetId="1" r:id="rId1"/>
     <sheet name="master" sheetId="2" r:id="rId2"/>
     <sheet name="ReArranged" sheetId="3" r:id="rId3"/>
     <sheet name="AcctNumSort" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sort by name then acct" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -879,125 +879,7 @@
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF000090"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9411A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFD81C20"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF11E634"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="45">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4269,42 +4151,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N26:N28 M29:M1048576 M1:M25">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
       <formula>20105134</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>20103239</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>20102682</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
       <formula>20102674</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>20102666</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
       <formula>20102631</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
       <formula>20102623</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="9" operator="equal">
       <formula>20102615</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="12" operator="equal">
       <formula>20133790</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="13" operator="equal">
       <formula>20100175</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
       <formula>20100167</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="44" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
       <formula>20100175</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4322,7 +4204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -5773,37 +5655,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E25:E27">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>20105134</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>20103239</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>20102682</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>20102674</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
       <formula>20102666</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>20102631</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
       <formula>20102623</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
       <formula>20102615</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>20133790</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>20100175</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
       <formula>20100167</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7270,1450 +7152,6 @@
     <sortCondition ref="D2:D27"/>
   </sortState>
   <conditionalFormatting sqref="E25:E27">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
-      <formula>20105134</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
-      <formula>20103239</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
-      <formula>20102682</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
-      <formula>20102674</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
-      <formula>20102666</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
-      <formula>20102631</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
-      <formula>20102623</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
-      <formula>20102615</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
-      <formula>20133790</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
-      <formula>20100175</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
-      <formula>20100167</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:45" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" s="2" customFormat="1" ht="20">
-      <c r="A2" s="6">
-        <v>5030870</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1496806</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="5">
-        <v>20100167</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2102897</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="2">
-        <v>200</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I2" s="2">
-        <v>500</v>
-      </c>
-      <c r="J2" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="AF2" s="4">
-        <v>5167510</v>
-      </c>
-      <c r="AG2" s="4">
-        <v>1472708</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" s="2" customFormat="1" ht="20">
-      <c r="A3" s="6">
-        <v>5030870</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1496806</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="5">
-        <v>20100175</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2102896</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="2">
-        <v>200</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I3" s="2">
-        <v>500</v>
-      </c>
-      <c r="J3" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" s="2" customFormat="1" ht="20">
-      <c r="A4" s="6">
-        <v>5030870</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1496806</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="5">
-        <v>20133790</v>
-      </c>
-      <c r="E4" s="5">
-        <v>81325842</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="2">
-        <v>200</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I4" s="2">
-        <v>500</v>
-      </c>
-      <c r="J4" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" s="2" customFormat="1" ht="20">
-      <c r="A5" s="6">
-        <v>5030870</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1142212</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="11">
-        <v>20100167</v>
-      </c>
-      <c r="E5" s="11">
-        <v>2102897</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="2">
-        <v>200</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I5" s="2">
-        <v>500</v>
-      </c>
-      <c r="J5" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" s="2" customFormat="1" ht="20">
-      <c r="A6" s="6">
-        <v>5030870</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1142212</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="11">
-        <v>20100175</v>
-      </c>
-      <c r="E6" s="11">
-        <v>2102896</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="2">
-        <v>200</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I6" s="2">
-        <v>500</v>
-      </c>
-      <c r="J6" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" s="2" customFormat="1" ht="20">
-      <c r="A7" s="6">
-        <v>5030870</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1142212</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="11">
-        <v>20133790</v>
-      </c>
-      <c r="E7" s="11">
-        <v>81325842</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="2">
-        <v>200</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I7" s="2">
-        <v>500</v>
-      </c>
-      <c r="J7" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" s="2" customFormat="1" ht="20">
-      <c r="A8" s="6">
-        <v>5030870</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1496805</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="5">
-        <v>20100167</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2102897</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="2">
-        <v>200</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I8" s="2">
-        <v>500</v>
-      </c>
-      <c r="J8" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" s="2" customFormat="1" ht="20">
-      <c r="A9" s="6">
-        <v>5030870</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1496805</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="5">
-        <v>20100175</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2102896</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="2">
-        <v>200</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I9" s="2">
-        <v>500</v>
-      </c>
-      <c r="J9" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" s="2" customFormat="1" ht="20">
-      <c r="A10" s="6">
-        <v>5030870</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1496805</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="5">
-        <v>20133790</v>
-      </c>
-      <c r="E10" s="5">
-        <v>81325842</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="2">
-        <v>200</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I10" s="2">
-        <v>500</v>
-      </c>
-      <c r="J10" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" s="2" customFormat="1" ht="20">
-      <c r="A11" s="6">
-        <v>5167510</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1472708</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="2">
-        <v>20127596</v>
-      </c>
-      <c r="E11" s="2">
-        <v>53597706</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="2">
-        <v>200</v>
-      </c>
-      <c r="H11" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I11" s="2">
-        <v>500</v>
-      </c>
-      <c r="J11" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U11" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" s="2" customFormat="1" ht="20">
-      <c r="A12" s="6">
-        <v>5030870</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1101463</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="5">
-        <v>20100167</v>
-      </c>
-      <c r="E12" s="5">
-        <v>2102897</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="2">
-        <v>200</v>
-      </c>
-      <c r="H12" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I12" s="2">
-        <v>500</v>
-      </c>
-      <c r="J12" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U12" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" s="2" customFormat="1" ht="20">
-      <c r="A13" s="6">
-        <v>5030870</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1101463</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="5">
-        <v>20100175</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2102896</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="2">
-        <v>200</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I13" s="2">
-        <v>500</v>
-      </c>
-      <c r="J13" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" s="2" customFormat="1" ht="20">
-      <c r="A14" s="6">
-        <v>5030870</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1101463</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="5">
-        <v>20133790</v>
-      </c>
-      <c r="E14" s="5">
-        <v>81325842</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="2">
-        <v>200</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I14" s="2">
-        <v>500</v>
-      </c>
-      <c r="J14" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U14" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" s="2" customFormat="1" ht="20">
-      <c r="A15" s="6">
-        <v>5030870</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1142226</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="5">
-        <v>20100167</v>
-      </c>
-      <c r="E15" s="5">
-        <v>2102897</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="2">
-        <v>200</v>
-      </c>
-      <c r="H15" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I15" s="2">
-        <v>500</v>
-      </c>
-      <c r="J15" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U15" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" s="2" customFormat="1" ht="20">
-      <c r="A16" s="6">
-        <v>5030870</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1142226</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="5">
-        <v>20100175</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2102896</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="2">
-        <v>200</v>
-      </c>
-      <c r="H16" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I16" s="2">
-        <v>500</v>
-      </c>
-      <c r="J16" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U16" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="2" customFormat="1" ht="20">
-      <c r="A17" s="6">
-        <v>5030870</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1142226</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="5">
-        <v>20133790</v>
-      </c>
-      <c r="E17" s="5">
-        <v>81325842</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="2">
-        <v>200</v>
-      </c>
-      <c r="H17" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I17" s="2">
-        <v>500</v>
-      </c>
-      <c r="J17" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U17" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" ht="20">
-      <c r="A18" s="6">
-        <v>5030870</v>
-      </c>
-      <c r="B18" s="13">
-        <v>1100798</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="5">
-        <v>20100167</v>
-      </c>
-      <c r="E18" s="5">
-        <v>2102897</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="2">
-        <v>200</v>
-      </c>
-      <c r="H18" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I18" s="2">
-        <v>500</v>
-      </c>
-      <c r="J18" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U18" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" ht="20">
-      <c r="A19" s="6">
-        <v>5030870</v>
-      </c>
-      <c r="B19" s="13">
-        <v>1100798</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="5">
-        <v>20100175</v>
-      </c>
-      <c r="E19" s="5">
-        <v>2102896</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="2">
-        <v>200</v>
-      </c>
-      <c r="H19" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I19" s="2">
-        <v>500</v>
-      </c>
-      <c r="J19" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U19" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="2" customFormat="1" ht="20">
-      <c r="A20" s="6">
-        <v>5030870</v>
-      </c>
-      <c r="B20" s="13">
-        <v>1100798</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="5">
-        <v>20133790</v>
-      </c>
-      <c r="E20" s="5">
-        <v>81325842</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="2">
-        <v>200</v>
-      </c>
-      <c r="H20" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I20" s="2">
-        <v>500</v>
-      </c>
-      <c r="J20" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U20" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="2" customFormat="1" ht="20">
-      <c r="A21" s="6">
-        <v>5030870</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1101460</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="5">
-        <v>20100167</v>
-      </c>
-      <c r="E21" s="5">
-        <v>2102897</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="2">
-        <v>200</v>
-      </c>
-      <c r="H21" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I21" s="2">
-        <v>500</v>
-      </c>
-      <c r="J21" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U21" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="2" customFormat="1" ht="20">
-      <c r="A22" s="6">
-        <v>5030870</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1101460</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="5">
-        <v>20100175</v>
-      </c>
-      <c r="E22" s="5">
-        <v>2102896</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="2">
-        <v>200</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I22" s="2">
-        <v>500</v>
-      </c>
-      <c r="J22" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U22" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" s="2" customFormat="1" ht="20">
-      <c r="A23" s="6">
-        <v>5030870</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1101460</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="5">
-        <v>20133790</v>
-      </c>
-      <c r="E23" s="5">
-        <v>81325842</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="2">
-        <v>200</v>
-      </c>
-      <c r="H23" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I23" s="2">
-        <v>500</v>
-      </c>
-      <c r="J23" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U23" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="2" customFormat="1" ht="20">
-      <c r="A24" s="6">
-        <v>5167510</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1473036</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="5">
-        <v>20127596</v>
-      </c>
-      <c r="E24" s="5">
-        <v>53597706</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="2">
-        <v>200</v>
-      </c>
-      <c r="H24" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I24" s="2">
-        <v>500</v>
-      </c>
-      <c r="J24" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U24" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="2" customFormat="1" ht="20">
-      <c r="A25" s="6">
-        <v>5107936</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1276339</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="2">
-        <v>20104448</v>
-      </c>
-      <c r="E25" s="2">
-        <v>6665576</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="2">
-        <v>200</v>
-      </c>
-      <c r="H25" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I25" s="2">
-        <v>500</v>
-      </c>
-      <c r="J25" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U25" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" s="2" customFormat="1" ht="20">
-      <c r="A26" s="6">
-        <v>5107936</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1276339</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="2">
-        <v>20104472</v>
-      </c>
-      <c r="E26" s="2">
-        <v>6665767</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="2">
-        <v>200</v>
-      </c>
-      <c r="H26" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I26" s="2">
-        <v>500</v>
-      </c>
-      <c r="J26" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U26" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" s="2" customFormat="1" ht="20">
-      <c r="A27" s="6">
-        <v>5107936</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1276339</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="2">
-        <v>20125054</v>
-      </c>
-      <c r="E27" s="2">
-        <v>47820939</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="2">
-        <v>200</v>
-      </c>
-      <c r="H27" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I27" s="2">
-        <v>500</v>
-      </c>
-      <c r="J27" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U27" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:N27">
-    <sortCondition ref="C2:C27"/>
-    <sortCondition ref="D2:D27"/>
-  </sortState>
-  <conditionalFormatting sqref="E25:E27">
     <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>20105134</formula>
     </cfRule>
@@ -8749,6 +7187,1450 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A2" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1496806</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2">
+        <v>200</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="2">
+        <v>500</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="AF2" s="4">
+        <v>5167510</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>1472708</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A3" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1496806</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2">
+        <v>200</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I3" s="2">
+        <v>500</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A4" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1496806</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E4" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2">
+        <v>200</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>500</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A5" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1142212</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="11">
+        <v>20100167</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2102897</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="2">
+        <v>200</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>500</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A6" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1142212</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="11">
+        <v>20100175</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2102896</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="2">
+        <v>200</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>500</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A7" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1142212</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="11">
+        <v>20133790</v>
+      </c>
+      <c r="E7" s="11">
+        <v>81325842</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="2">
+        <v>200</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>500</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A8" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1496805</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="2">
+        <v>200</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>500</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A9" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1496805</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2">
+        <v>200</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>500</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A10" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1496805</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E10" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="2">
+        <v>200</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>500</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A11" s="6">
+        <v>5167510</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1472708</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="2">
+        <v>20127596</v>
+      </c>
+      <c r="E11" s="2">
+        <v>53597706</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="2">
+        <v>200</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>500</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A12" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1101463</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="2">
+        <v>200</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I12" s="2">
+        <v>500</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A13" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1101463</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="2">
+        <v>200</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I13" s="2">
+        <v>500</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A14" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1101463</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E14" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="2">
+        <v>200</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I14" s="2">
+        <v>500</v>
+      </c>
+      <c r="J14" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A15" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1142226</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="2">
+        <v>200</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I15" s="2">
+        <v>500</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" s="2" customFormat="1" ht="20">
+      <c r="A16" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1142226</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="2">
+        <v>200</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>500</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="2" customFormat="1" ht="20">
+      <c r="A17" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1142226</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E17" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="2">
+        <v>200</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I17" s="2">
+        <v>500</v>
+      </c>
+      <c r="J17" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="2" customFormat="1" ht="20">
+      <c r="A18" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B18" s="13">
+        <v>1100798</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="2">
+        <v>200</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>500</v>
+      </c>
+      <c r="J18" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="2" customFormat="1" ht="20">
+      <c r="A19" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B19" s="13">
+        <v>1100798</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="2">
+        <v>200</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I19" s="2">
+        <v>500</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="2" customFormat="1" ht="20">
+      <c r="A20" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B20" s="13">
+        <v>1100798</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E20" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="2">
+        <v>200</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="2">
+        <v>500</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="2" customFormat="1" ht="20">
+      <c r="A21" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1101460</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="5">
+        <v>20100167</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2102897</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="2">
+        <v>200</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I21" s="2">
+        <v>500</v>
+      </c>
+      <c r="J21" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="2" customFormat="1" ht="20">
+      <c r="A22" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1101460</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="5">
+        <v>20100175</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2102896</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="2">
+        <v>200</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I22" s="2">
+        <v>500</v>
+      </c>
+      <c r="J22" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U22" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="2" customFormat="1" ht="20">
+      <c r="A23" s="6">
+        <v>5030870</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1101460</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="5">
+        <v>20133790</v>
+      </c>
+      <c r="E23" s="5">
+        <v>81325842</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="2">
+        <v>200</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="2">
+        <v>500</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="2" customFormat="1" ht="20">
+      <c r="A24" s="6">
+        <v>5167510</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1473036</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="5">
+        <v>20127596</v>
+      </c>
+      <c r="E24" s="5">
+        <v>53597706</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="2">
+        <v>200</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I24" s="2">
+        <v>500</v>
+      </c>
+      <c r="J24" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U24" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="2" customFormat="1" ht="20">
+      <c r="A25" s="6">
+        <v>5107936</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1276339</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="2">
+        <v>20104448</v>
+      </c>
+      <c r="E25" s="2">
+        <v>6665576</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="2">
+        <v>200</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I25" s="2">
+        <v>500</v>
+      </c>
+      <c r="J25" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U25" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" s="2" customFormat="1" ht="20">
+      <c r="A26" s="6">
+        <v>5107936</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1276339</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="2">
+        <v>20104472</v>
+      </c>
+      <c r="E26" s="2">
+        <v>6665767</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="2">
+        <v>200</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I26" s="2">
+        <v>500</v>
+      </c>
+      <c r="J26" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U26" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="2" customFormat="1" ht="20">
+      <c r="A27" s="6">
+        <v>5107936</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1276339</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="2">
+        <v>20125054</v>
+      </c>
+      <c r="E27" s="2">
+        <v>47820939</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="2">
+        <v>200</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I27" s="2">
+        <v>500</v>
+      </c>
+      <c r="J27" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U27" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:N27">
+    <sortCondition ref="C2:C27"/>
+    <sortCondition ref="D2:D27"/>
+  </sortState>
+  <conditionalFormatting sqref="E25:E27">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>20105134</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>20103239</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>20102682</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>20102674</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>20102666</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>20102631</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>20102623</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+      <formula>20102615</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+      <formula>20133790</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+      <formula>20100175</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+      <formula>20100167</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
